--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -442,12 +442,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>similar sentence</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>similarity</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>similar sentence</t>
         </is>
       </c>
     </row>
@@ -457,13 +457,13 @@
           <t>阿蒂玛</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>旁蒂克</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>0.3517124145371124</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>旁蒂克</t>
-        </is>
       </c>
     </row>
     <row r="3">
@@ -472,13 +472,13 @@
           <t>阿尔宾娜</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>阿尔宾娜</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>阿尔宾娜</t>
-        </is>
       </c>
     </row>
     <row r="4">
@@ -487,13 +487,13 @@
           <t>阿尔法罗密欧</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>阿尔法罗密欧</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>阿尔法罗密欧</t>
-        </is>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
           <t>阿雷罗</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>阿尔法罗密欧</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>0.4810177308490582</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>阿尔法罗密欧</t>
-        </is>
       </c>
     </row>
     <row r="6">
@@ -517,13 +517,13 @@
           <t>阿罗莎</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>阿尔法罗密欧</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>0.4415099255795818</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>阿尔法罗密欧</t>
-        </is>
       </c>
     </row>
     <row r="7">
@@ -532,13 +532,13 @@
           <t>阿美拉</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>美鹿</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>0.4356841014661533</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>美鹿</t>
-        </is>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
           <t>阿斯顿马丁</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>阿斯顿马丁</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>0.9999999999999999</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>阿斯顿马丁</t>
-        </is>
       </c>
     </row>
     <row r="9">
@@ -562,13 +562,13 @@
           <t>爱迪尔</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>风景爱尔法</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>0.5173804764714193</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>风景爱尔法</t>
-        </is>
       </c>
     </row>
     <row r="10">
@@ -577,13 +577,13 @@
           <t>爱卡汽车网</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>优卡二手车网</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>0.5111704571152746</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>优卡二手车网</t>
-        </is>
       </c>
     </row>
     <row r="11">
@@ -592,13 +592,13 @@
           <t>爱丽舍</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>新爱丽舍</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>0.9094722286009985</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>新爱丽舍</t>
-        </is>
       </c>
     </row>
     <row r="12">
@@ -607,13 +607,13 @@
           <t>安凯客车</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>新凯</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>0.4378755090985824</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>新凯</t>
-        </is>
       </c>
     </row>
     <row r="13">
@@ -622,13 +622,13 @@
           <t>安全带固定加强底板</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>安全带固定</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>0.7243158967419079</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>安全带固定</t>
-        </is>
       </c>
     </row>
     <row r="14">
@@ -637,13 +637,13 @@
           <t>安全气囊</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>气囊灯</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>0.6714173812276116</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>气囊灯</t>
-        </is>
       </c>
     </row>
     <row r="15">
@@ -652,13 +652,13 @@
           <t>安全凸面镜</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>全面安全防护</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>0.5634911761996977</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>全面安全防护</t>
-        </is>
       </c>
     </row>
     <row r="16">
@@ -667,13 +667,13 @@
           <t>鞍形横梁</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>横滑</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>0.3295204374410797</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>横滑</t>
-        </is>
       </c>
     </row>
     <row r="17">
@@ -682,13 +682,13 @@
           <t>昂科雷</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>雅科仕</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>0.3517168254242238</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>雅科仕</t>
-        </is>
       </c>
     </row>
     <row r="18">
@@ -697,13 +697,13 @@
           <t>奥布维</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>布加迪</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>0.4075549912096094</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>布加迪</t>
-        </is>
       </c>
     </row>
     <row r="19">
@@ -712,13 +712,13 @@
           <t>奥德赛</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>奥德赛</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>1</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>奥德赛</t>
-        </is>
       </c>
     </row>
     <row r="20">
@@ -727,13 +727,13 @@
           <t>奥迪</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>奥迪</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>奥迪</t>
-        </is>
       </c>
     </row>
     <row r="21">
@@ -742,13 +742,13 @@
           <t>傲龙</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>翱龙</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>0.4455005281592641</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>翱龙</t>
-        </is>
       </c>
     </row>
     <row r="22">
@@ -757,13 +757,13 @@
           <t>翱龙</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>翱龙</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>1</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>翱龙</t>
-        </is>
       </c>
     </row>
     <row r="23">
@@ -772,13 +772,13 @@
           <t>奥斯莫比尔</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>奥斯莫比</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>0.9130883597748631</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>奥斯莫比</t>
-        </is>
       </c>
     </row>
     <row r="24">
@@ -787,13 +787,13 @@
           <t>霸道哈弗</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>霸道</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>0.6598339831664177</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>霸道</t>
-        </is>
       </c>
     </row>
     <row r="25">
@@ -802,13 +802,13 @@
           <t>板簧压块</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>地板压条</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>0.4304958544191163</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>地板压条</t>
-        </is>
       </c>
     </row>
     <row r="26">
@@ -817,13 +817,13 @@
           <t>板簧中心距拉线</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>轮距</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>0.3732281819169265</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>轮距</t>
-        </is>
       </c>
     </row>
     <row r="27">
@@ -832,13 +832,13 @@
           <t>钣金</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>金鹰</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>0.4263055469980727</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>金鹰</t>
-        </is>
       </c>
     </row>
     <row r="28">
@@ -847,13 +847,13 @@
           <t>钣金清洗系列</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>玻璃清洗液</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>0.3946319543127136</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>玻璃清洗液</t>
-        </is>
       </c>
     </row>
     <row r="29">
@@ -862,13 +862,13 @@
           <t>板式开关</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>翘板开关</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>0.6361374393924164</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>翘板开关</t>
-        </is>
       </c>
     </row>
     <row r="30">
@@ -877,13 +877,13 @@
           <t>半轴</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>前半轴</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>0.859973955751253</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>前半轴</t>
-        </is>
       </c>
     </row>
     <row r="31">
@@ -892,13 +892,13 @@
           <t>半轴齿轮</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>前半轴</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>0.6209474814845866</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>前半轴</t>
-        </is>
       </c>
     </row>
     <row r="32">
@@ -907,13 +907,13 @@
           <t>半轴齿轮垫</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>前半轴</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>0.542927927863063</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>前半轴</t>
-        </is>
       </c>
     </row>
     <row r="33">
@@ -922,13 +922,13 @@
           <t>半轴螺丝</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>前半轴</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>0.5231967932281847</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>前半轴</t>
-        </is>
       </c>
     </row>
     <row r="34">
@@ -937,13 +937,13 @@
           <t>半轴套管</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>前半轴</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>0.5622756956351156</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>前半轴</t>
-        </is>
       </c>
     </row>
     <row r="35">
@@ -952,13 +952,13 @@
           <t>半轴突缘</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>前半轴</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>0.5167472985763473</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>前半轴</t>
-        </is>
       </c>
     </row>
     <row r="36">
@@ -967,13 +967,13 @@
           <t>宝来</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>欧宝</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>0.5207631754879589</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>欧宝</t>
-        </is>
       </c>
     </row>
     <row r="37">
@@ -982,13 +982,13 @@
           <t>宝马系</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>欧宝</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>0.4984338704900484</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>欧宝</t>
-        </is>
       </c>
     </row>
     <row r="38">
@@ -997,13 +997,13 @@
           <t>保时捷</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>保时捷新卡宴</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>0.6930845862941679</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>保时捷新卡宴</t>
-        </is>
       </c>
     </row>
     <row r="39">
@@ -1012,13 +1012,13 @@
           <t>宝腾</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>欧宝</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>0.5089302742637222</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>欧宝</t>
-        </is>
       </c>
     </row>
     <row r="40">
@@ -1027,13 +1027,13 @@
           <t>保险杠</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>前后保险杠</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>0.8363457660435362</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>前后保险杠</t>
-        </is>
       </c>
     </row>
     <row r="41">
@@ -1042,13 +1042,13 @@
           <t>保修保养光盘</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>保养券</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>0.5359174140283229</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>保养券</t>
-        </is>
       </c>
     </row>
     <row r="42">
@@ -1057,13 +1057,13 @@
           <t>爆震传感器</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>转速传感器</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
         <v>0.5264985475165743</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>转速传感器</t>
-        </is>
       </c>
     </row>
     <row r="43">
@@ -1072,13 +1072,13 @@
           <t>北京奥铃</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>北京现代</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
         <v>0.4735399123608425</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>北京现代</t>
-        </is>
       </c>
     </row>
     <row r="44">
@@ -1087,13 +1087,13 @@
           <t>北京奔驰</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>北京奔驰戴克</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
         <v>0.8166563292265862</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>北京奔驰戴克</t>
-        </is>
       </c>
     </row>
     <row r="45">
@@ -1102,13 +1102,13 @@
           <t>北京戴克</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>北京奔驰戴克</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
         <v>0.7913595327585502</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>北京奔驰戴克</t>
-        </is>
       </c>
     </row>
     <row r="46">
@@ -1117,13 +1117,13 @@
           <t>北京克莱斯勒</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>戴姆勒克莱斯勒</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>0.6689520298636252</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>戴姆勒克莱斯勒</t>
-        </is>
       </c>
     </row>
     <row r="47">
@@ -1132,13 +1132,13 @@
           <t>北京三菱</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>北京现代</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
         <v>0.4329520718459068</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>北京现代</t>
-        </is>
       </c>
     </row>
     <row r="48">
@@ -1147,13 +1147,13 @@
           <t>北京现代</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>北京现代</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
         <v>1</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>北京现代</t>
-        </is>
       </c>
     </row>
     <row r="49">
@@ -1162,13 +1162,13 @@
           <t>北汽控股</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>北汽控股</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
         <v>1</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>北汽控股</t>
-        </is>
       </c>
     </row>
     <row r="50">
@@ -1177,13 +1177,13 @@
           <t>北汽制造</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>汽车制动液</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
         <v>0.3531187355677898</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>汽车制动液</t>
-        </is>
       </c>
     </row>
     <row r="51">
@@ -1192,13 +1192,13 @@
           <t>备胎</t>
         </is>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>轮胎换位</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
         <v>0.3949238451291245</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>轮胎换位</t>
-        </is>
       </c>
     </row>
     <row r="52">
@@ -1207,13 +1207,13 @@
           <t>备胎槽</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>十字槽</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
         <v>0.3671922987760689</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>十字槽</t>
-        </is>
       </c>
     </row>
     <row r="53">
@@ -1222,13 +1222,13 @@
           <t>备胎架总成</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>前大灯总成</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
         <v>0.4280258142784372</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>前大灯总成</t>
-        </is>
       </c>
     </row>
     <row r="54">
@@ -1237,13 +1237,13 @@
           <t>备胎罩</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>罩垫</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
         <v>0.468086550070574</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>罩垫</t>
-        </is>
       </c>
     </row>
     <row r="55">
@@ -1252,13 +1252,13 @@
           <t>备胎支架</t>
         </is>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>托架</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
         <v>0.3041956318566596</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>托架</t>
-        </is>
       </c>
     </row>
     <row r="56">
@@ -1267,13 +1267,13 @@
           <t>备用轮舱</t>
         </is>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>用车</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
         <v>0.4336957809520434</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>用车</t>
-        </is>
       </c>
     </row>
     <row r="57">
@@ -1282,13 +1282,13 @@
           <t>奔驰级</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>奔驰车队</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
         <v>0.6273283317372443</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>奔驰车队</t>
-        </is>
       </c>
     </row>
     <row r="58">
@@ -1297,13 +1297,13 @@
           <t>奔驰级傲虎</t>
         </is>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>奔驰车队</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
         <v>0.4728081602326013</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>奔驰车队</t>
-        </is>
       </c>
     </row>
     <row r="59">
@@ -1312,13 +1312,13 @@
           <t>奔驰赛骏</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>奔驰车队</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
         <v>0.5811017305795666</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>奔驰车队</t>
-        </is>
       </c>
     </row>
     <row r="60">
@@ -1327,13 +1327,13 @@
           <t>本格尔</t>
         </is>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>英格尔</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
         <v>0.5876650738662226</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>英格尔</t>
-        </is>
       </c>
     </row>
     <row r="61">
@@ -1342,13 +1342,13 @@
           <t>本田</t>
         </is>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>东风本田</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
         <v>0.7835055918063863</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>东风本田</t>
-        </is>
       </c>
     </row>
     <row r="62">
@@ -1357,13 +1357,13 @@
           <t>本田开锁工具</t>
         </is>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>东风本田</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
         <v>0.471198930046452</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>东风本田</t>
-        </is>
       </c>
     </row>
     <row r="63">
@@ -1372,13 +1372,13 @@
           <t>比亚迪</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>比亚迪</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
         <v>1</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>比亚迪</t>
-        </is>
       </c>
     </row>
     <row r="64">
@@ -1387,13 +1387,13 @@
           <t>变光开关</t>
         </is>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>大灯开关</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
         <v>0.5360721197465315</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>大灯开关</t>
-        </is>
       </c>
     </row>
     <row r="65">
@@ -1402,13 +1402,13 @@
           <t>变矩器</t>
         </is>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>扭矩</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
         <v>0.5534370386869304</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>扭矩</t>
-        </is>
       </c>
     </row>
     <row r="66">
@@ -1417,13 +1417,13 @@
           <t>变扭器</t>
         </is>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>变扭器</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
         <v>1</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>变扭器</t>
-        </is>
       </c>
     </row>
     <row r="67">
@@ -1432,13 +1432,13 @@
           <t>变扭器切割设备</t>
         </is>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>变扭器</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
         <v>0.5524000589758974</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>变扭器</t>
-        </is>
       </c>
     </row>
     <row r="68">
@@ -1447,13 +1447,13 @@
           <t>变扭器维修设备</t>
         </is>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>汽车维修设备</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
         <v>0.7467055707602195</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>汽车维修设备</t>
-        </is>
       </c>
     </row>
     <row r="69">
@@ -1462,13 +1462,13 @@
           <t>变速器</t>
         </is>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
         <v>0.6671791718554007</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>半自动变速器</t>
-        </is>
       </c>
     </row>
     <row r="70">
@@ -1477,13 +1477,13 @@
           <t>变速器结构原理</t>
         </is>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>变速器结构原理</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
         <v>0.9999999999999999</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>变速器结构原理</t>
-        </is>
       </c>
     </row>
     <row r="71">
@@ -1492,13 +1492,13 @@
           <t>变速器壳</t>
         </is>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
         <v>0.5321799119052236</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>半自动变速器</t>
-        </is>
       </c>
     </row>
     <row r="72">
@@ -1507,13 +1507,13 @@
           <t>变速器前壳衬垫</t>
         </is>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
         <v>0.3588669959822346</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>半自动变速器</t>
-        </is>
       </c>
     </row>
     <row r="73">
@@ -1522,13 +1522,13 @@
           <t>变速器悬挂总成</t>
         </is>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>前大灯总成</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
         <v>0.3586946815960778</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>前大灯总成</t>
-        </is>
       </c>
     </row>
     <row r="74">
@@ -1537,13 +1537,13 @@
           <t>变速器支架</t>
         </is>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
         <v>0.4513804844744989</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>半自动变速器</t>
-        </is>
       </c>
     </row>
     <row r="75">
@@ -1552,13 +1552,13 @@
           <t>变速器中壳</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
         <v>0.4712012157412135</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>半自动变速器</t>
-        </is>
       </c>
     </row>
     <row r="76">
@@ -1567,13 +1567,13 @@
           <t>变速器总成</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>前大灯总成</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
         <v>0.4869350236491115</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>前大灯总成</t>
-        </is>
       </c>
     </row>
     <row r="77">
@@ -1582,13 +1582,13 @@
           <t>变速箱</t>
         </is>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>手动变速箱</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
         <v>0.7937118065745441</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>手动变速箱</t>
-        </is>
       </c>
     </row>
     <row r="78">
@@ -1597,13 +1597,13 @@
           <t>变速箱紧固件</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>手动变速箱</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
         <v>0.4819077485426158</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>手动变速箱</t>
-        </is>
       </c>
     </row>
     <row r="79">
@@ -1612,13 +1612,13 @@
           <t>变速箱壳体</t>
         </is>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>手动变速箱</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
         <v>0.5513583231295194</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>手动变速箱</t>
-        </is>
       </c>
     </row>
     <row r="80">
@@ -1627,13 +1627,13 @@
           <t>变速箱油泵</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>自动变速箱油</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
         <v>0.7058595082643525</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>自动变速箱油</t>
-        </is>
       </c>
     </row>
     <row r="81">
@@ -1642,13 +1642,13 @@
           <t>变速箱油底壳</t>
         </is>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>自动变速箱油</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
         <v>0.5997146396524899</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>自动变速箱油</t>
-        </is>
       </c>
     </row>
     <row r="82">
@@ -1657,13 +1657,13 @@
           <t>变速箱油滤</t>
         </is>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>自动变速箱油</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
         <v>0.6950187437216482</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>自动变速箱油</t>
-        </is>
       </c>
     </row>
     <row r="83">
@@ -1672,13 +1672,13 @@
           <t>变速箱油温传感器</t>
         </is>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>温度传感器</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
         <v>0.6478648388868301</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>温度传感器</t>
-        </is>
       </c>
     </row>
     <row r="84">
@@ -1687,13 +1687,13 @@
           <t>变速箱支撑</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>手动变速箱</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
         <v>0.5097326839651323</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>手动变速箱</t>
-        </is>
       </c>
     </row>
     <row r="85">
@@ -1702,13 +1702,13 @@
           <t>标的车</t>
         </is>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>标的车</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
         <v>1</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>标的车</t>
-        </is>
       </c>
     </row>
     <row r="86">
@@ -1717,13 +1717,13 @@
           <t>彪马爱仕城镇</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>雅科仕</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
         <v>0.2583173538374011</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>雅科仕</t>
-        </is>
       </c>
     </row>
     <row r="87">
@@ -1732,13 +1732,13 @@
           <t>别克</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>通用别克</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
         <v>0.6987761701510663</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>通用别克</t>
-        </is>
       </c>
     </row>
     <row r="88">
@@ -1747,13 +1747,13 @@
           <t>别克英朗</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>通用别克</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
         <v>0.4402422261326315</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>通用别克</t>
-        </is>
       </c>
     </row>
     <row r="89">
@@ -1762,13 +1762,13 @@
           <t>宾利</t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>宾利欧陆</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
         <v>0.7400996433381741</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>宾利欧陆</t>
-        </is>
       </c>
     </row>
     <row r="90">
@@ -1777,13 +1777,13 @@
           <t>拨叉轴支架</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>叉车用</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
         <v>0.3745619131906665</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>叉车用</t>
-        </is>
       </c>
     </row>
     <row r="91">
@@ -1792,13 +1792,13 @@
           <t>玻璃导槽</t>
         </is>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>车门玻璃</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
         <v>0.4659549173099324</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>车门玻璃</t>
-        </is>
       </c>
     </row>
     <row r="92">
@@ -1807,13 +1807,13 @@
           <t>玻璃加热</t>
         </is>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>座椅加热</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
         <v>0.5190573644497078</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>座椅加热</t>
-        </is>
       </c>
     </row>
     <row r="93">
@@ -1822,13 +1822,13 @@
           <t>玻璃清洗液</t>
         </is>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>玻璃清洗液</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
         <v>0.9999999999999999</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>玻璃清洗液</t>
-        </is>
       </c>
     </row>
     <row r="94">
@@ -1837,13 +1837,13 @@
           <t>玻璃升降器</t>
         </is>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>电动玻璃升降器</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
         <v>0.9051035816682931</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>电动玻璃升降器</t>
-        </is>
       </c>
     </row>
     <row r="95">
@@ -1852,13 +1852,13 @@
           <t>玻璃升降器开关</t>
         </is>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>电动玻璃升降器</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
         <v>0.7735679260564585</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>电动玻璃升降器</t>
-        </is>
       </c>
     </row>
     <row r="96">
@@ -1867,13 +1867,13 @@
           <t>玻璃水</t>
         </is>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>车门玻璃</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
         <v>0.5900789603234259</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>车门玻璃</t>
-        </is>
       </c>
     </row>
     <row r="97">
@@ -1882,13 +1882,13 @@
           <t>铂锐</t>
         </is>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>固铂</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
         <v>0.5296359203592478</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>固铂</t>
-        </is>
       </c>
     </row>
     <row r="98">
@@ -1897,13 +1897,13 @@
           <t>波司垫片</t>
         </is>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>盖垫</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
         <v>0.3500985475395352</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>盖垫</t>
-        </is>
       </c>
     </row>
     <row r="99">
@@ -1912,13 +1912,13 @@
           <t>波箱</t>
         </is>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>分动箱</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
         <v>0.3547776987641454</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>分动箱</t>
-        </is>
       </c>
     </row>
     <row r="100">
@@ -1927,13 +1927,13 @@
           <t>补偿容器</t>
         </is>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>补炉</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
         <v>0.3446910454176299</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>补炉</t>
-        </is>
       </c>
     </row>
     <row r="101">
@@ -1942,13 +1942,13 @@
           <t>布加迪</t>
         </is>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>布加迪</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
         <v>0.9999999999999998</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>布加迪</t>
-        </is>
       </c>
     </row>
     <row r="102">
@@ -1957,13 +1957,13 @@
           <t>补胎针</t>
         </is>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>补炉</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
         <v>0.38585718975183</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>补炉</t>
-        </is>
       </c>
     </row>
     <row r="103">
@@ -1972,13 +1972,13 @@
           <t>擦布麂皮</t>
         </is>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>布加迪</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
         <v>0.2870994788668493</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>布加迪</t>
-        </is>
       </c>
     </row>
     <row r="104">
@@ -1987,13 +1987,13 @@
           <t>侧灯罩</t>
         </is>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>尾灯罩</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
         <v>0.6407894628555957</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>尾灯罩</t>
-        </is>
       </c>
     </row>
     <row r="105">
@@ -2002,13 +2002,13 @@
           <t>侧灯总成</t>
         </is>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>前大灯总成</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
         <v>0.6759519004556321</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>前大灯总成</t>
-        </is>
       </c>
     </row>
     <row r="106">
@@ -2017,13 +2017,13 @@
           <t>侧滑试验台</t>
         </is>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>汽车台</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
         <v>0.3638894194569801</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>汽车台</t>
-        </is>
       </c>
     </row>
     <row r="107">
@@ -2032,13 +2032,13 @@
           <t>差动锥齿轮轴</t>
         </is>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>齿轮齿条式转向</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
         <v>0.3968027412557966</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>齿轮齿条式转向</t>
-        </is>
       </c>
     </row>
     <row r="108">
@@ -2047,13 +2047,13 @@
           <t>插分档汽缸纸垫</t>
         </is>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>分缸线</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
         <v>0.3956510715862733</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>分缸线</t>
-        </is>
       </c>
     </row>
     <row r="109">
@@ -2062,13 +2062,13 @@
           <t>差减器总成</t>
         </is>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>轮边减速器</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
         <v>0.4201734438913668</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>轮边减速器</t>
-        </is>
       </c>
     </row>
     <row r="110">
@@ -2077,13 +2077,13 @@
           <t>差速</t>
         </is>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>转速仪</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
         <v>0.3047358137809142</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>转速仪</t>
-        </is>
       </c>
     </row>
     <row r="111">
@@ -2092,13 +2092,13 @@
           <t>差速器</t>
         </is>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>转速传感器</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
         <v>0.399088079678287</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>转速传感器</t>
-        </is>
       </c>
     </row>
     <row r="112">
@@ -2107,13 +2107,13 @@
           <t>差速器壳</t>
         </is>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>飞轮壳</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
         <v>0.3535681797391883</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>飞轮壳</t>
-        </is>
       </c>
     </row>
     <row r="113">
@@ -2122,13 +2122,13 @@
           <t>差速器壳体</t>
         </is>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>飞轮壳</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
         <v>0.3022493195453321</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>飞轮壳</t>
-        </is>
       </c>
     </row>
     <row r="114">
@@ -2137,13 +2137,13 @@
           <t>差速器十字轴</t>
         </is>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>十字槽</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
         <v>0.5793684450930499</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>十字槽</t>
-        </is>
       </c>
     </row>
     <row r="115">
@@ -2152,13 +2152,13 @@
           <t>差速器行星齿轮</t>
         </is>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>行星齿轮</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
         <v>0.7993135606316355</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>行星齿轮</t>
-        </is>
       </c>
     </row>
     <row r="116">
@@ -2167,13 +2167,13 @@
           <t>差速器油封</t>
         </is>
       </c>
-      <c r="B116" t="n">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>油封漏油</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
         <v>0.5589526521023601</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>油封漏油</t>
-        </is>
       </c>
     </row>
     <row r="117">
@@ -2182,13 +2182,13 @@
           <t>差速器总成</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>前大灯总成</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
         <v>0.4663294986202767</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>前大灯总成</t>
-        </is>
       </c>
     </row>
     <row r="118">
@@ -2197,13 +2197,13 @@
           <t>拆换发动机总成</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>轿车发动机</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
         <v>0.4344785145597593</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>轿车发动机</t>
-        </is>
       </c>
     </row>
     <row r="119">
@@ -2212,13 +2212,13 @@
           <t>柴油车后桥总成</t>
         </is>
       </c>
-      <c r="B119" t="n">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>汽车用柴油</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
         <v>0.416085598371014</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>汽车用柴油</t>
-        </is>
       </c>
     </row>
     <row r="120">
@@ -2227,13 +2227,13 @@
           <t>柴油传感器</t>
         </is>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>转速传感器</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
         <v>0.6257237510278837</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>转速传感器</t>
-        </is>
       </c>
     </row>
     <row r="121">
@@ -2242,13 +2242,13 @@
           <t>柴油粗滤芯</t>
         </is>
       </c>
-      <c r="B121" t="n">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>机滤芯</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
         <v>0.5636612916319808</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>机滤芯</t>
-        </is>
       </c>
     </row>
     <row r="122">
@@ -2257,13 +2257,13 @@
           <t>柴油发动机</t>
         </is>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>发动机烧机油</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
         <v>0.7035035337735487</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>发动机烧机油</t>
-        </is>
       </c>
     </row>
     <row r="123">
@@ -2272,13 +2272,13 @@
           <t>柴油管</t>
         </is>
       </c>
-      <c r="B123" t="n">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>汽车用柴油</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
         <v>0.5642548212908957</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>汽车用柴油</t>
-        </is>
       </c>
     </row>
     <row r="124">
@@ -2287,13 +2287,13 @@
           <t>柴油滤清器</t>
         </is>
       </c>
-      <c r="B124" t="n">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>汽车用柴油</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
         <v>0.432569224551672</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>汽车用柴油</t>
-        </is>
       </c>
     </row>
     <row r="125">
@@ -2302,13 +2302,13 @@
           <t>柴油皮卡</t>
         </is>
       </c>
-      <c r="B125" t="n">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>汽车用柴油</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
         <v>0.4282374029203307</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>汽车用柴油</t>
-        </is>
       </c>
     </row>
     <row r="126">
@@ -2317,13 +2317,13 @@
           <t>柴油软管</t>
         </is>
       </c>
-      <c r="B126" t="n">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>汽车用柴油</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
         <v>0.4347635777632597</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>汽车用柴油</t>
-        </is>
       </c>
     </row>
     <row r="127">
@@ -2332,13 +2332,13 @@
           <t>柴油细滤芯</t>
         </is>
       </c>
-      <c r="B127" t="n">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>机滤芯</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
         <v>0.5636612916319808</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>机滤芯</t>
-        </is>
       </c>
     </row>
     <row r="128">
@@ -2347,13 +2347,13 @@
           <t>柴油箱盖</t>
         </is>
       </c>
-      <c r="B128" t="n">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>汽车用柴油</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
         <v>0.4899839057010379</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>汽车用柴油</t>
-        </is>
       </c>
     </row>
     <row r="129">
@@ -2362,13 +2362,13 @@
           <t>柴油箱总成</t>
         </is>
       </c>
-      <c r="B129" t="n">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>前大灯总成</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
         <v>0.454108618067051</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>前大灯总成</t>
-        </is>
       </c>
     </row>
     <row r="130">
@@ -2377,13 +2377,13 @@
           <t>拆装飞轮</t>
         </is>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>飞轮壳</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
         <v>0.5092073885999808</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>飞轮壳</t>
-        </is>
       </c>
     </row>
     <row r="131">
@@ -2392,13 +2392,13 @@
           <t>拆装进气歧管</t>
         </is>
       </c>
-      <c r="B131" t="n">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>进气格栅</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
         <v>0.3703064961177809</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>进气格栅</t>
-        </is>
       </c>
     </row>
     <row r="132">
@@ -2407,13 +2407,13 @@
           <t>拆装排气气歧管</t>
         </is>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>排气制动</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
         <v>0.5140031175953369</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>排气制动</t>
-        </is>
       </c>
     </row>
     <row r="133">
@@ -2422,13 +2422,13 @@
           <t>拆装气门</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>气门弹簧</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
         <v>0.3979614042400201</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>气门弹簧</t>
-        </is>
       </c>
     </row>
     <row r="134">
@@ -2437,13 +2437,13 @@
           <t>长安福特</t>
         </is>
       </c>
-      <c r="B134" t="n">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>长安福特福克斯</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
         <v>0.8519418788510176</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>长安福特福克斯</t>
-        </is>
       </c>
     </row>
     <row r="135">
@@ -2452,13 +2452,13 @@
           <t>长安集团</t>
         </is>
       </c>
-      <c r="B135" t="n">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>铃木集团</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
         <v>0.5384847503001124</v>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>铃木集团</t>
-        </is>
       </c>
     </row>
     <row r="136">
@@ -2467,13 +2467,13 @@
           <t>长安铃木</t>
         </is>
       </c>
-      <c r="B136" t="n">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>铃木</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
         <v>0.7517696097072639</v>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>铃木</t>
-        </is>
       </c>
     </row>
     <row r="137">
@@ -2482,13 +2482,13 @@
           <t>长安马自达</t>
         </is>
       </c>
-      <c r="B137" t="n">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>长安马自达</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
         <v>0.9999999999999999</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>长安马自达</t>
-        </is>
       </c>
     </row>
     <row r="138">
@@ -2497,13 +2497,13 @@
           <t>长安沃尔沃</t>
         </is>
       </c>
-      <c r="B138" t="n">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>长安沃尔沃</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
         <v>1</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>长安沃尔沃</t>
-        </is>
       </c>
     </row>
     <row r="139">
@@ -2512,13 +2512,13 @@
           <t>长安悦翔</t>
         </is>
       </c>
-      <c r="B139" t="n">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>长安志翔</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
         <v>0.7066849427936086</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>长安志翔</t>
-        </is>
       </c>
     </row>
     <row r="140">
@@ -2527,13 +2527,13 @@
           <t>长城汽车</t>
         </is>
       </c>
-      <c r="B140" t="n">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>长城轿车</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
         <v>0.7441896137860553</v>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>长城轿车</t>
-        </is>
       </c>
     </row>
     <row r="141">
@@ -2542,13 +2542,13 @@
           <t>长丰</t>
         </is>
       </c>
-      <c r="B141" t="n">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>长丰猎豹</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
         <v>0.6284307620464609</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>长丰猎豹</t>
-        </is>
       </c>
     </row>
     <row r="142">
@@ -2557,13 +2557,13 @@
           <t>长丰猎豹</t>
         </is>
       </c>
-      <c r="B142" t="n">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>长丰猎豹</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
         <v>1</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>长丰猎豹</t>
-        </is>
       </c>
     </row>
     <row r="143">
@@ -2572,13 +2572,13 @@
           <t>长丰汽车</t>
         </is>
       </c>
-      <c r="B143" t="n">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>长丰猎豹</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
         <v>0.5410729436881685</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>长丰猎豹</t>
-        </is>
       </c>
     </row>
     <row r="144">
@@ -2587,13 +2587,13 @@
           <t>长丰三菱</t>
         </is>
       </c>
-      <c r="B144" t="n">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>中国三菱拉力艺车队</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
         <v>0.4053377139736218</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>中国三菱拉力艺车队</t>
-        </is>
       </c>
     </row>
     <row r="145">
@@ -2602,13 +2602,13 @@
           <t>长丰扬子</t>
         </is>
       </c>
-      <c r="B145" t="n">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>长丰猎豹</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
         <v>0.3981553853656099</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>长丰猎豹</t>
-        </is>
       </c>
     </row>
     <row r="146">
@@ -2617,13 +2617,13 @@
           <t>昌河</t>
         </is>
       </c>
-      <c r="B146" t="n">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>昌河铃木</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
         <v>0.7236250256285893</v>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>昌河铃木</t>
-        </is>
       </c>
     </row>
     <row r="147">
@@ -2632,13 +2632,13 @@
           <t>昌河海豚</t>
         </is>
       </c>
-      <c r="B147" t="n">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>昌河铃木</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
         <v>0.4712800507245454</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>昌河铃木</t>
-        </is>
       </c>
     </row>
     <row r="148">
@@ -2647,13 +2647,13 @@
           <t>昌河集团</t>
         </is>
       </c>
-      <c r="B148" t="n">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>昌河铃木</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
         <v>0.5201511490033812</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>昌河铃木</t>
-        </is>
       </c>
     </row>
     <row r="149">
@@ -2662,13 +2662,13 @@
           <t>昌河骏马</t>
         </is>
       </c>
-      <c r="B149" t="n">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>昌河铃木</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
         <v>0.5194797328391363</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>昌河铃木</t>
-        </is>
       </c>
     </row>
     <row r="150">
@@ -2677,13 +2677,13 @@
           <t>昌河铃木</t>
         </is>
       </c>
-      <c r="B150" t="n">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>昌河铃木</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
         <v>1</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>昌河铃木</t>
-        </is>
       </c>
     </row>
     <row r="151">
@@ -2692,13 +2692,13 @@
           <t>昌河汽车</t>
         </is>
       </c>
-      <c r="B151" t="n">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>昌河铃木</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
         <v>0.6381865697190694</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>昌河铃木</t>
-        </is>
       </c>
     </row>
     <row r="152">
@@ -2707,13 +2707,13 @@
           <t>常开式通气阀</t>
         </is>
       </c>
-      <c r="B152" t="n">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>通风阀</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
         <v>0.5104438669169593</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>通风阀</t>
-        </is>
       </c>
     </row>
     <row r="153">
@@ -2722,13 +2722,13 @@
           <t>敞篷版</t>
         </is>
       </c>
-      <c r="B153" t="n">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>轿车</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
         <v>0</v>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>轿车</t>
-        </is>
       </c>
     </row>
     <row r="154">
@@ -2737,13 +2737,13 @@
           <t>超压调节阀</t>
         </is>
       </c>
-      <c r="B154" t="n">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>汽车空调压缩机</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
         <v>0.3614504845089067</v>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>汽车空调压缩机</t>
-        </is>
       </c>
     </row>
     <row r="155">
@@ -2752,13 +2752,13 @@
           <t>车顶</t>
         </is>
       </c>
-      <c r="B155" t="n">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>千斤顶</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
         <v>0.4779484441174436</v>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>千斤顶</t>
-        </is>
       </c>
     </row>
     <row r="156">
@@ -2767,13 +2767,13 @@
           <t>车顶板</t>
         </is>
       </c>
-      <c r="B156" t="n">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>千斤顶</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
         <v>0.3942652899465809</v>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>千斤顶</t>
-        </is>
       </c>
     </row>
     <row r="157">
@@ -2782,13 +2782,13 @@
           <t>车顶隔热毡</t>
         </is>
       </c>
-      <c r="B157" t="n">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>隔热板</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
         <v>0.5727295405155628</v>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>隔热板</t>
-        </is>
       </c>
     </row>
     <row r="158">
@@ -2797,13 +2797,13 @@
           <t>车顶横梁</t>
         </is>
       </c>
-      <c r="B158" t="n">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>横滑</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
         <v>0.3935348061067331</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>横滑</t>
-        </is>
       </c>
     </row>
     <row r="159">
@@ -2812,13 +2812,13 @@
           <t>车顶纵梁</t>
         </is>
       </c>
-      <c r="B159" t="n">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>纵臂扭转</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
         <v>0.3534444258346016</v>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>纵臂扭转</t>
-        </is>
       </c>
     </row>
     <row r="160">
@@ -2827,13 +2827,13 @@
           <t>车高</t>
         </is>
       </c>
-      <c r="B160" t="n">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>中高级车</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
         <v>0.6036683136194729</v>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>中高级车</t>
-        </is>
       </c>
     </row>
     <row r="161">
@@ -2842,13 +2842,13 @@
           <t>车架</t>
         </is>
       </c>
-      <c r="B161" t="n">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>托架</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
         <v>0.5840127634515232</v>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>托架</t>
-        </is>
       </c>
     </row>
     <row r="162">
@@ -2857,13 +2857,13 @@
           <t>车架总成</t>
         </is>
       </c>
-      <c r="B162" t="n">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>前大灯总成</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
         <v>0.5424730537281079</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>前大灯总成</t>
-        </is>
       </c>
     </row>
     <row r="163">
@@ -2872,13 +2872,13 @@
           <t>车宽</t>
         </is>
       </c>
-      <c r="B163" t="n">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>新车</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
         <v>0.1382225884055672</v>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>新车</t>
-        </is>
       </c>
     </row>
     <row r="164">
@@ -2887,13 +2887,13 @@
           <t>车蜡</t>
         </is>
       </c>
-      <c r="B164" t="n">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>空腔注蜡</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
         <v>0.4905836278071112</v>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>空腔注蜡</t>
-        </is>
       </c>
     </row>
     <row r="165">
@@ -2902,13 +2902,13 @@
           <t>车辆</t>
         </is>
       </c>
-      <c r="B165" t="n">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>车辆稳定性控制系统</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
         <v>0.4277603246226157</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>车辆稳定性控制系统</t>
-        </is>
       </c>
     </row>
     <row r="166">
@@ -2917,13 +2917,13 @@
           <t>车辆对比</t>
         </is>
       </c>
-      <c r="B166" t="n">
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>车载对讲机</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
         <v>0.368441505376269</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>车载对讲机</t>
-        </is>
       </c>
     </row>
     <row r="167">
@@ -2932,13 +2932,13 @@
           <t>车轮</t>
         </is>
       </c>
-      <c r="B167" t="n">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>轮缸</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
         <v>0.5181762850284184</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>轮缸</t>
-        </is>
       </c>
     </row>
     <row r="168">
@@ -2947,13 +2947,13 @@
           <t>车轮动平衡机</t>
         </is>
       </c>
-      <c r="B168" t="n">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>平治房车</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
         <v>0.3541755568809121</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>平治房车</t>
-        </is>
       </c>
     </row>
     <row r="169">
@@ -2962,13 +2962,13 @@
           <t>车轮轮毂</t>
         </is>
       </c>
-      <c r="B169" t="n">
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>负值轮毂</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
         <v>0.5797076430271132</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>负值轮毂</t>
-        </is>
       </c>
     </row>
     <row r="170">
@@ -2977,13 +2977,13 @@
           <t>车轮饰盖</t>
         </is>
       </c>
-      <c r="B170" t="n">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>饰盖</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
         <v>0.8454482984504477</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>饰盖</t>
-        </is>
       </c>
     </row>
     <row r="171">
@@ -2992,13 +2992,13 @@
           <t>车轮轴承套</t>
         </is>
       </c>
-      <c r="B171" t="n">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>圆锥滚子轴承</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
         <v>0.3649916941164098</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>圆锥滚子轴承</t>
-        </is>
       </c>
     </row>
     <row r="172">
@@ -3007,13 +3007,13 @@
           <t>车门</t>
         </is>
       </c>
-      <c r="B172" t="n">
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>车门框</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
         <v>0.6471243996734337</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>车门框</t>
-        </is>
       </c>
     </row>
     <row r="173">
@@ -3022,13 +3022,13 @@
           <t>车门玻璃</t>
         </is>
       </c>
-      <c r="B173" t="n">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>车门玻璃</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
         <v>1</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>车门玻璃</t>
-        </is>
       </c>
     </row>
     <row r="174">
@@ -3037,13 +3037,13 @@
           <t>车门铰链</t>
         </is>
       </c>
-      <c r="B174" t="n">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>车门铰链</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
         <v>0.9999999999999999</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>车门铰链</t>
-        </is>
       </c>
     </row>
     <row r="175">
@@ -3052,13 +3052,13 @@
           <t>车门拉手</t>
         </is>
       </c>
-      <c r="B175" t="n">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>车门扶手</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
         <v>0.603204371576222</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>车门扶手</t>
-        </is>
       </c>
     </row>
     <row r="176">
@@ -3067,13 +3067,13 @@
           <t>车门饰板</t>
         </is>
       </c>
-      <c r="B176" t="n">
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>车门饰板</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
         <v>1</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>车门饰板</t>
-        </is>
       </c>
     </row>
     <row r="177">
@@ -3082,13 +3082,13 @@
           <t>车门锁总成</t>
         </is>
       </c>
-      <c r="B177" t="n">
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>前大灯总成</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
         <v>0.4681324726148731</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>前大灯总成</t>
-        </is>
       </c>
     </row>
     <row r="178">
@@ -3097,13 +3097,13 @@
           <t>车门折页</t>
         </is>
       </c>
-      <c r="B178" t="n">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>车门框</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
         <v>0.3009031037002434</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>车门框</t>
-        </is>
       </c>
     </row>
     <row r="179">
@@ -3112,13 +3112,13 @@
           <t>车内地毯</t>
         </is>
       </c>
-      <c r="B179" t="n">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>山地车</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
         <v>0.3587446948146539</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>山地车</t>
-        </is>
       </c>
     </row>
     <row r="180">
@@ -3127,13 +3127,13 @@
           <t>车内后视镜</t>
         </is>
       </c>
-      <c r="B180" t="n">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>车内后视镜</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
         <v>1</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>车内后视镜</t>
-        </is>
       </c>
     </row>
     <row r="181">
@@ -3142,13 +3142,13 @@
           <t>车内温度传感器</t>
         </is>
       </c>
-      <c r="B181" t="n">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>温度传感器</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
         <v>0.8939209930408073</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>温度传感器</t>
-        </is>
       </c>
     </row>
     <row r="182">
@@ -3157,13 +3157,13 @@
           <t>车牌</t>
         </is>
       </c>
-      <c r="B182" t="n">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>品牌汽车</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
         <v>0.679557914617603</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>品牌汽车</t>
-        </is>
       </c>
     </row>
     <row r="183">
@@ -3172,13 +3172,13 @@
           <t>车牌架</t>
         </is>
       </c>
-      <c r="B183" t="n">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>品牌汽车</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
         <v>0.5143275788177222</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>品牌汽车</t>
-        </is>
       </c>
     </row>
     <row r="184">
@@ -3187,13 +3187,13 @@
           <t>车身</t>
         </is>
       </c>
-      <c r="B184" t="n">
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>全承载车身</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
         <v>0.5315311424456179</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>全承载车身</t>
-        </is>
       </c>
     </row>
     <row r="185">
@@ -3202,13 +3202,13 @@
           <t>车身钣金件</t>
         </is>
       </c>
-      <c r="B185" t="n">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>金鹰</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
         <v>0.3146638514473746</v>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>金鹰</t>
-        </is>
       </c>
     </row>
     <row r="186">
@@ -3217,13 +3217,13 @@
           <t>车身彩条</t>
         </is>
       </c>
-      <c r="B186" t="n">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>嵌条</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
         <v>0.3655504509909163</v>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>嵌条</t>
-        </is>
       </c>
     </row>
     <row r="187">
@@ -3232,13 +3232,13 @@
           <t>车身附件</t>
         </is>
       </c>
-      <c r="B187" t="n">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>汽车挂件</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
         <v>0.3309849475492287</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>汽车挂件</t>
-        </is>
       </c>
     </row>
     <row r="188">
@@ -3247,13 +3247,13 @@
           <t>车身件</t>
         </is>
       </c>
-      <c r="B188" t="n">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>汽车挂件</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
         <v>0.4486635109382587</v>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>汽车挂件</t>
-        </is>
       </c>
     </row>
     <row r="189">
@@ -3262,13 +3262,13 @@
           <t>车身校正设备</t>
         </is>
       </c>
-      <c r="B189" t="n">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>汽车维修设备</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
         <v>0.4162672288304866</v>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>汽车维修设备</t>
-        </is>
       </c>
     </row>
     <row r="190">
@@ -3277,13 +3277,13 @@
           <t>车身清洗设备</t>
         </is>
       </c>
-      <c r="B190" t="n">
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>汽车维修设备</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
         <v>0.4484383011497396</v>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>汽车维修设备</t>
-        </is>
       </c>
     </row>
     <row r="191">
@@ -3292,13 +3292,13 @@
           <t>车身尾板</t>
         </is>
       </c>
-      <c r="B191" t="n">
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>尾灯</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
         <v>0.5095861097987763</v>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>尾灯</t>
-        </is>
       </c>
     </row>
     <row r="192">
@@ -3307,13 +3307,13 @@
           <t>车身整形设备</t>
         </is>
       </c>
-      <c r="B192" t="n">
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>汽车维修设备</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
         <v>0.4268673138745936</v>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>汽车维修设备</t>
-        </is>
       </c>
     </row>
     <row r="193">
@@ -3322,13 +3322,13 @@
           <t>车身主动控制系统</t>
         </is>
       </c>
-      <c r="B193" t="n">
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>牵引力控制系统</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
         <v>0.5064810655160216</v>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>牵引力控制系统</t>
-        </is>
       </c>
     </row>
     <row r="194">
@@ -3337,13 +3337,13 @@
           <t>车速表检验台</t>
         </is>
       </c>
-      <c r="B194" t="n">
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>仪表台</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
         <v>0.5015655716502836</v>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>仪表台</t>
-        </is>
       </c>
     </row>
     <row r="195">
@@ -3352,13 +3352,13 @@
           <t>车速传感器</t>
         </is>
       </c>
-      <c r="B195" t="n">
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>转速传感器</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
         <v>0.8671845554368587</v>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>转速传感器</t>
-        </is>
       </c>
     </row>
     <row r="196">
@@ -3367,13 +3367,13 @@
           <t>车速仪</t>
         </is>
       </c>
-      <c r="B196" t="n">
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>转速仪</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
         <v>0.7812016291128467</v>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>转速仪</t>
-        </is>
       </c>
     </row>
     <row r="197">
@@ -3382,13 +3382,13 @@
           <t>车体护板</t>
         </is>
       </c>
-      <c r="B197" t="n">
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>下护板</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
         <v>0.5874914476988874</v>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>下护板</t>
-        </is>
       </c>
     </row>
     <row r="198">
@@ -3397,13 +3397,13 @@
           <t>车体护板装饰件</t>
         </is>
       </c>
-      <c r="B198" t="n">
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>装饰灯</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
         <v>0.5173113489035343</v>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>装饰灯</t>
-        </is>
       </c>
     </row>
     <row r="199">
@@ -3412,13 +3412,13 @@
           <t>车体左护板</t>
         </is>
       </c>
-      <c r="B199" t="n">
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>下护板</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
         <v>0.4704767419253734</v>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>下护板</t>
-        </is>
       </c>
     </row>
     <row r="200">
@@ -3427,13 +3427,13 @@
           <t>车外温度传感器</t>
         </is>
       </c>
-      <c r="B200" t="n">
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>温度传感器</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
         <v>0.8395649107092363</v>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>温度传感器</t>
-        </is>
       </c>
     </row>
     <row r="201">
@@ -3442,13 +3442,13 @@
           <t>车型</t>
         </is>
       </c>
-      <c r="B201" t="n">
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>新车型</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
         <v>0.7843896694926262</v>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>新车型</t>
-        </is>
       </c>
     </row>
     <row r="202">
@@ -3457,13 +3457,13 @@
           <t>车用吸尘器</t>
         </is>
       </c>
-      <c r="B202" t="n">
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>用车</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
         <v>0.47332546722554</v>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>用车</t>
-        </is>
       </c>
     </row>
     <row r="203">
@@ -3472,13 +3472,13 @@
           <t>车友会</t>
         </is>
       </c>
-      <c r="B203" t="n">
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>美国汽车协会</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
         <v>0.3558822731329898</v>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>美国汽车协会</t>
-        </is>
       </c>
     </row>
     <row r="204">
@@ -3487,13 +3487,13 @@
           <t>车友论坛</t>
         </is>
       </c>
-      <c r="B204" t="n">
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>新车</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
         <v>0.08415073474362206</v>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>新车</t>
-        </is>
       </c>
     </row>
     <row r="205">
@@ -3502,13 +3502,13 @@
           <t>车载冰箱</t>
         </is>
       </c>
-      <c r="B205" t="n">
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>车载冰箱</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
         <v>1</v>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>车载冰箱</t>
-        </is>
       </c>
     </row>
     <row r="206">
@@ -3517,13 +3517,13 @@
           <t>车载电话</t>
         </is>
       </c>
-      <c r="B206" t="n">
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>车载电话</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
         <v>0.9999999999999999</v>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>车载电话</t>
-        </is>
       </c>
     </row>
     <row r="207">
@@ -3532,13 +3532,13 @@
           <t>车载电脑</t>
         </is>
       </c>
-      <c r="B207" t="n">
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>车载电脑</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
         <v>0.9999999999999996</v>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>车载电脑</t>
-        </is>
       </c>
     </row>
     <row r="208">
@@ -3547,13 +3547,13 @@
           <t>车载电视</t>
         </is>
       </c>
-      <c r="B208" t="n">
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>车载电台</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
         <v>0.5801528968960961</v>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>车载电台</t>
-        </is>
       </c>
     </row>
     <row r="209">
@@ -3562,13 +3562,13 @@
           <t>车载对讲机</t>
         </is>
       </c>
-      <c r="B209" t="n">
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>车载对讲机</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
         <v>1</v>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>车载对讲机</t>
-        </is>
       </c>
     </row>
     <row r="210">
@@ -3577,13 +3577,13 @@
           <t>车载免提</t>
         </is>
       </c>
-      <c r="B210" t="n">
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>车载电台</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
         <v>0.298585184091822</v>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>车载电台</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C210"/>
+  <dimension ref="A1:K210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,12 +442,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>similar sentence</t>
+          <t>0 th similar sentence</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>similarity</t>
+          <t>0 th similarity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1 th similar sentence</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1 th similarity</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2 th similar sentence</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2 th similarity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>3 th similar sentence</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3 th similarity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>4 th similar sentence</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>4 th similarity</t>
         </is>
       </c>
     </row>
@@ -465,6 +505,22 @@
       <c r="C2" t="n">
         <v>0.3517124145371124</v>
       </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -480,6 +536,22 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -495,6 +567,22 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -510,6 +598,22 @@
       <c r="C5" t="n">
         <v>0.4810177308490582</v>
       </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -525,6 +629,22 @@
       <c r="C6" t="n">
         <v>0.4415099255795818</v>
       </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -540,6 +660,22 @@
       <c r="C7" t="n">
         <v>0.4356841014661533</v>
       </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -555,6 +691,22 @@
       <c r="C8" t="n">
         <v>0.9999999999999999</v>
       </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -570,6 +722,22 @@
       <c r="C9" t="n">
         <v>0.5173804764714193</v>
       </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -585,6 +753,22 @@
       <c r="C10" t="n">
         <v>0.5111704571152746</v>
       </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -600,6 +784,22 @@
       <c r="C11" t="n">
         <v>0.9094722286009985</v>
       </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -615,6 +815,22 @@
       <c r="C12" t="n">
         <v>0.4378755090985824</v>
       </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -630,6 +846,22 @@
       <c r="C13" t="n">
         <v>0.7243158967419079</v>
       </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -645,6 +877,22 @@
       <c r="C14" t="n">
         <v>0.6714173812276116</v>
       </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -660,6 +908,22 @@
       <c r="C15" t="n">
         <v>0.5634911761996977</v>
       </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -675,6 +939,22 @@
       <c r="C16" t="n">
         <v>0.3295204374410797</v>
       </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -690,6 +970,22 @@
       <c r="C17" t="n">
         <v>0.3517168254242238</v>
       </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -705,6 +1001,22 @@
       <c r="C18" t="n">
         <v>0.4075549912096094</v>
       </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -720,6 +1032,22 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -735,6 +1063,22 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -750,6 +1094,22 @@
       <c r="C21" t="n">
         <v>0.4455005281592641</v>
       </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -765,6 +1125,22 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -780,6 +1156,22 @@
       <c r="C23" t="n">
         <v>0.9130883597748631</v>
       </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -795,6 +1187,22 @@
       <c r="C24" t="n">
         <v>0.6598339831664177</v>
       </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -810,6 +1218,22 @@
       <c r="C25" t="n">
         <v>0.4304958544191163</v>
       </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -825,6 +1249,22 @@
       <c r="C26" t="n">
         <v>0.3732281819169265</v>
       </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -840,6 +1280,22 @@
       <c r="C27" t="n">
         <v>0.4263055469980727</v>
       </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -855,6 +1311,22 @@
       <c r="C28" t="n">
         <v>0.3946319543127136</v>
       </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -870,6 +1342,22 @@
       <c r="C29" t="n">
         <v>0.6361374393924164</v>
       </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -885,6 +1373,22 @@
       <c r="C30" t="n">
         <v>0.859973955751253</v>
       </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -900,6 +1404,22 @@
       <c r="C31" t="n">
         <v>0.6209474814845866</v>
       </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -915,6 +1435,22 @@
       <c r="C32" t="n">
         <v>0.542927927863063</v>
       </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -930,6 +1466,22 @@
       <c r="C33" t="n">
         <v>0.5231967932281847</v>
       </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -945,6 +1497,22 @@
       <c r="C34" t="n">
         <v>0.5622756956351156</v>
       </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -960,6 +1528,22 @@
       <c r="C35" t="n">
         <v>0.5167472985763473</v>
       </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -975,6 +1559,22 @@
       <c r="C36" t="n">
         <v>0.5207631754879589</v>
       </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -990,6 +1590,22 @@
       <c r="C37" t="n">
         <v>0.4984338704900484</v>
       </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1005,6 +1621,22 @@
       <c r="C38" t="n">
         <v>0.6930845862941679</v>
       </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1020,6 +1652,22 @@
       <c r="C39" t="n">
         <v>0.5089302742637222</v>
       </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1035,6 +1683,22 @@
       <c r="C40" t="n">
         <v>0.8363457660435362</v>
       </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1050,6 +1714,22 @@
       <c r="C41" t="n">
         <v>0.5359174140283229</v>
       </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1065,6 +1745,22 @@
       <c r="C42" t="n">
         <v>0.5264985475165743</v>
       </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1080,6 +1776,22 @@
       <c r="C43" t="n">
         <v>0.4735399123608425</v>
       </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1095,6 +1807,22 @@
       <c r="C44" t="n">
         <v>0.8166563292265862</v>
       </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1110,6 +1838,22 @@
       <c r="C45" t="n">
         <v>0.7913595327585502</v>
       </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1125,6 +1869,22 @@
       <c r="C46" t="n">
         <v>0.6689520298636252</v>
       </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1140,6 +1900,22 @@
       <c r="C47" t="n">
         <v>0.4329520718459068</v>
       </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1155,6 +1931,22 @@
       <c r="C48" t="n">
         <v>1</v>
       </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1170,6 +1962,22 @@
       <c r="C49" t="n">
         <v>1</v>
       </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1185,6 +1993,22 @@
       <c r="C50" t="n">
         <v>0.3531187355677898</v>
       </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1200,6 +2024,22 @@
       <c r="C51" t="n">
         <v>0.3949238451291245</v>
       </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1215,6 +2055,22 @@
       <c r="C52" t="n">
         <v>0.3671922987760689</v>
       </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1230,6 +2086,22 @@
       <c r="C53" t="n">
         <v>0.4280258142784372</v>
       </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1245,6 +2117,22 @@
       <c r="C54" t="n">
         <v>0.468086550070574</v>
       </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1260,6 +2148,22 @@
       <c r="C55" t="n">
         <v>0.3041956318566596</v>
       </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1275,6 +2179,22 @@
       <c r="C56" t="n">
         <v>0.4336957809520434</v>
       </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1290,6 +2210,22 @@
       <c r="C57" t="n">
         <v>0.6273283317372443</v>
       </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1305,6 +2241,22 @@
       <c r="C58" t="n">
         <v>0.4728081602326013</v>
       </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1320,6 +2272,22 @@
       <c r="C59" t="n">
         <v>0.5811017305795666</v>
       </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1335,6 +2303,22 @@
       <c r="C60" t="n">
         <v>0.5876650738662226</v>
       </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1350,6 +2334,22 @@
       <c r="C61" t="n">
         <v>0.7835055918063863</v>
       </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1365,6 +2365,22 @@
       <c r="C62" t="n">
         <v>0.471198930046452</v>
       </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1380,6 +2396,22 @@
       <c r="C63" t="n">
         <v>1</v>
       </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1395,6 +2427,22 @@
       <c r="C64" t="n">
         <v>0.5360721197465315</v>
       </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1410,6 +2458,22 @@
       <c r="C65" t="n">
         <v>0.5534370386869304</v>
       </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1425,6 +2489,22 @@
       <c r="C66" t="n">
         <v>1</v>
       </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1440,6 +2520,22 @@
       <c r="C67" t="n">
         <v>0.5524000589758974</v>
       </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1455,6 +2551,22 @@
       <c r="C68" t="n">
         <v>0.7467055707602195</v>
       </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1470,6 +2582,22 @@
       <c r="C69" t="n">
         <v>0.6671791718554007</v>
       </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1485,6 +2613,22 @@
       <c r="C70" t="n">
         <v>0.9999999999999999</v>
       </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1500,6 +2644,22 @@
       <c r="C71" t="n">
         <v>0.5321799119052236</v>
       </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1515,6 +2675,22 @@
       <c r="C72" t="n">
         <v>0.3588669959822346</v>
       </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1530,6 +2706,22 @@
       <c r="C73" t="n">
         <v>0.3586946815960778</v>
       </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1545,6 +2737,22 @@
       <c r="C74" t="n">
         <v>0.4513804844744989</v>
       </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1560,6 +2768,22 @@
       <c r="C75" t="n">
         <v>0.4712012157412135</v>
       </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1575,6 +2799,22 @@
       <c r="C76" t="n">
         <v>0.4869350236491115</v>
       </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1590,6 +2830,22 @@
       <c r="C77" t="n">
         <v>0.7937118065745441</v>
       </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1605,6 +2861,22 @@
       <c r="C78" t="n">
         <v>0.4819077485426158</v>
       </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1620,6 +2892,22 @@
       <c r="C79" t="n">
         <v>0.5513583231295194</v>
       </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1635,6 +2923,22 @@
       <c r="C80" t="n">
         <v>0.7058595082643525</v>
       </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1650,6 +2954,22 @@
       <c r="C81" t="n">
         <v>0.5997146396524899</v>
       </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1665,6 +2985,22 @@
       <c r="C82" t="n">
         <v>0.6950187437216482</v>
       </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1680,6 +3016,22 @@
       <c r="C83" t="n">
         <v>0.6478648388868301</v>
       </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1695,6 +3047,22 @@
       <c r="C84" t="n">
         <v>0.5097326839651323</v>
       </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1710,6 +3078,22 @@
       <c r="C85" t="n">
         <v>1</v>
       </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1725,6 +3109,22 @@
       <c r="C86" t="n">
         <v>0.2583173538374011</v>
       </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1740,6 +3140,22 @@
       <c r="C87" t="n">
         <v>0.6987761701510663</v>
       </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1755,6 +3171,22 @@
       <c r="C88" t="n">
         <v>0.4402422261326315</v>
       </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1770,6 +3202,22 @@
       <c r="C89" t="n">
         <v>0.7400996433381741</v>
       </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1785,6 +3233,22 @@
       <c r="C90" t="n">
         <v>0.3745619131906665</v>
       </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1800,6 +3264,22 @@
       <c r="C91" t="n">
         <v>0.4659549173099324</v>
       </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1815,6 +3295,22 @@
       <c r="C92" t="n">
         <v>0.5190573644497078</v>
       </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1830,6 +3326,22 @@
       <c r="C93" t="n">
         <v>0.9999999999999999</v>
       </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1845,6 +3357,22 @@
       <c r="C94" t="n">
         <v>0.9051035816682931</v>
       </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1860,6 +3388,22 @@
       <c r="C95" t="n">
         <v>0.7735679260564585</v>
       </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1875,6 +3419,22 @@
       <c r="C96" t="n">
         <v>0.5900789603234259</v>
       </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1890,6 +3450,22 @@
       <c r="C97" t="n">
         <v>0.5296359203592478</v>
       </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1905,6 +3481,22 @@
       <c r="C98" t="n">
         <v>0.3500985475395352</v>
       </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1920,6 +3512,22 @@
       <c r="C99" t="n">
         <v>0.3547776987641454</v>
       </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1935,6 +3543,22 @@
       <c r="C100" t="n">
         <v>0.3446910454176299</v>
       </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1950,6 +3574,22 @@
       <c r="C101" t="n">
         <v>0.9999999999999998</v>
       </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1965,6 +3605,22 @@
       <c r="C102" t="n">
         <v>0.38585718975183</v>
       </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1980,6 +3636,22 @@
       <c r="C103" t="n">
         <v>0.2870994788668493</v>
       </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1995,6 +3667,22 @@
       <c r="C104" t="n">
         <v>0.6407894628555957</v>
       </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2010,6 +3698,22 @@
       <c r="C105" t="n">
         <v>0.6759519004556321</v>
       </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2025,6 +3729,22 @@
       <c r="C106" t="n">
         <v>0.3638894194569801</v>
       </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2040,6 +3760,22 @@
       <c r="C107" t="n">
         <v>0.3968027412557966</v>
       </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2055,6 +3791,22 @@
       <c r="C108" t="n">
         <v>0.3956510715862733</v>
       </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2070,6 +3822,22 @@
       <c r="C109" t="n">
         <v>0.4201734438913668</v>
       </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2085,6 +3853,22 @@
       <c r="C110" t="n">
         <v>0.3047358137809142</v>
       </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2100,6 +3884,22 @@
       <c r="C111" t="n">
         <v>0.399088079678287</v>
       </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2115,6 +3915,22 @@
       <c r="C112" t="n">
         <v>0.3535681797391883</v>
       </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2130,6 +3946,22 @@
       <c r="C113" t="n">
         <v>0.3022493195453321</v>
       </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2145,6 +3977,22 @@
       <c r="C114" t="n">
         <v>0.5793684450930499</v>
       </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2160,6 +4008,22 @@
       <c r="C115" t="n">
         <v>0.7993135606316355</v>
       </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2175,6 +4039,22 @@
       <c r="C116" t="n">
         <v>0.5589526521023601</v>
       </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2190,6 +4070,22 @@
       <c r="C117" t="n">
         <v>0.4663294986202767</v>
       </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2205,6 +4101,22 @@
       <c r="C118" t="n">
         <v>0.4344785145597593</v>
       </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2220,6 +4132,22 @@
       <c r="C119" t="n">
         <v>0.416085598371014</v>
       </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2235,6 +4163,22 @@
       <c r="C120" t="n">
         <v>0.6257237510278837</v>
       </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2250,6 +4194,22 @@
       <c r="C121" t="n">
         <v>0.5636612916319808</v>
       </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2265,6 +4225,22 @@
       <c r="C122" t="n">
         <v>0.7035035337735487</v>
       </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2280,6 +4256,22 @@
       <c r="C123" t="n">
         <v>0.5642548212908957</v>
       </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2295,6 +4287,22 @@
       <c r="C124" t="n">
         <v>0.432569224551672</v>
       </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2310,6 +4318,22 @@
       <c r="C125" t="n">
         <v>0.4282374029203307</v>
       </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2325,6 +4349,22 @@
       <c r="C126" t="n">
         <v>0.4347635777632597</v>
       </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2340,6 +4380,22 @@
       <c r="C127" t="n">
         <v>0.5636612916319808</v>
       </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2355,6 +4411,22 @@
       <c r="C128" t="n">
         <v>0.4899839057010379</v>
       </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2370,6 +4442,22 @@
       <c r="C129" t="n">
         <v>0.454108618067051</v>
       </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2385,6 +4473,22 @@
       <c r="C130" t="n">
         <v>0.5092073885999808</v>
       </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2400,6 +4504,22 @@
       <c r="C131" t="n">
         <v>0.3703064961177809</v>
       </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2415,6 +4535,22 @@
       <c r="C132" t="n">
         <v>0.5140031175953369</v>
       </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2430,6 +4566,22 @@
       <c r="C133" t="n">
         <v>0.3979614042400201</v>
       </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2445,6 +4597,22 @@
       <c r="C134" t="n">
         <v>0.8519418788510176</v>
       </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2460,6 +4628,22 @@
       <c r="C135" t="n">
         <v>0.5384847503001124</v>
       </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2475,6 +4659,22 @@
       <c r="C136" t="n">
         <v>0.7517696097072639</v>
       </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2490,6 +4690,22 @@
       <c r="C137" t="n">
         <v>0.9999999999999999</v>
       </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2505,6 +4721,22 @@
       <c r="C138" t="n">
         <v>1</v>
       </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2520,6 +4752,22 @@
       <c r="C139" t="n">
         <v>0.7066849427936086</v>
       </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2535,6 +4783,22 @@
       <c r="C140" t="n">
         <v>0.7441896137860553</v>
       </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2550,6 +4814,22 @@
       <c r="C141" t="n">
         <v>0.6284307620464609</v>
       </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2565,6 +4845,22 @@
       <c r="C142" t="n">
         <v>1</v>
       </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2580,6 +4876,22 @@
       <c r="C143" t="n">
         <v>0.5410729436881685</v>
       </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2595,6 +4907,22 @@
       <c r="C144" t="n">
         <v>0.4053377139736218</v>
       </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2610,6 +4938,22 @@
       <c r="C145" t="n">
         <v>0.3981553853656099</v>
       </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2625,6 +4969,22 @@
       <c r="C146" t="n">
         <v>0.7236250256285893</v>
       </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2640,6 +5000,22 @@
       <c r="C147" t="n">
         <v>0.4712800507245454</v>
       </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2655,6 +5031,22 @@
       <c r="C148" t="n">
         <v>0.5201511490033812</v>
       </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2670,6 +5062,22 @@
       <c r="C149" t="n">
         <v>0.5194797328391363</v>
       </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2685,6 +5093,22 @@
       <c r="C150" t="n">
         <v>1</v>
       </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2700,6 +5124,22 @@
       <c r="C151" t="n">
         <v>0.6381865697190694</v>
       </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2715,6 +5155,22 @@
       <c r="C152" t="n">
         <v>0.5104438669169593</v>
       </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2722,12 +5178,24 @@
           <t>敞篷版</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>轿车</t>
-        </is>
-      </c>
+      <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2745,6 +5213,22 @@
       <c r="C154" t="n">
         <v>0.3614504845089067</v>
       </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2760,6 +5244,22 @@
       <c r="C155" t="n">
         <v>0.4779484441174436</v>
       </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2775,6 +5275,22 @@
       <c r="C156" t="n">
         <v>0.3942652899465809</v>
       </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2790,6 +5306,22 @@
       <c r="C157" t="n">
         <v>0.5727295405155628</v>
       </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2805,6 +5337,22 @@
       <c r="C158" t="n">
         <v>0.3935348061067331</v>
       </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2820,6 +5368,22 @@
       <c r="C159" t="n">
         <v>0.3534444258346016</v>
       </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2835,6 +5399,22 @@
       <c r="C160" t="n">
         <v>0.6036683136194729</v>
       </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -2850,6 +5430,22 @@
       <c r="C161" t="n">
         <v>0.5840127634515232</v>
       </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2865,6 +5461,22 @@
       <c r="C162" t="n">
         <v>0.5424730537281079</v>
       </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2880,6 +5492,22 @@
       <c r="C163" t="n">
         <v>0.1382225884055672</v>
       </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -2895,6 +5523,22 @@
       <c r="C164" t="n">
         <v>0.4905836278071112</v>
       </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -2910,6 +5554,22 @@
       <c r="C165" t="n">
         <v>0.4277603246226157</v>
       </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -2925,6 +5585,22 @@
       <c r="C166" t="n">
         <v>0.368441505376269</v>
       </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -2940,6 +5616,22 @@
       <c r="C167" t="n">
         <v>0.5181762850284184</v>
       </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2955,6 +5647,22 @@
       <c r="C168" t="n">
         <v>0.3541755568809121</v>
       </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -2970,6 +5678,22 @@
       <c r="C169" t="n">
         <v>0.5797076430271132</v>
       </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2985,6 +5709,22 @@
       <c r="C170" t="n">
         <v>0.8454482984504477</v>
       </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3000,6 +5740,22 @@
       <c r="C171" t="n">
         <v>0.3649916941164098</v>
       </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3015,6 +5771,22 @@
       <c r="C172" t="n">
         <v>0.6471243996734337</v>
       </c>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3030,6 +5802,22 @@
       <c r="C173" t="n">
         <v>1</v>
       </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3045,6 +5833,22 @@
       <c r="C174" t="n">
         <v>0.9999999999999999</v>
       </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3060,6 +5864,22 @@
       <c r="C175" t="n">
         <v>0.603204371576222</v>
       </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3075,6 +5895,22 @@
       <c r="C176" t="n">
         <v>1</v>
       </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3090,6 +5926,22 @@
       <c r="C177" t="n">
         <v>0.4681324726148731</v>
       </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3105,6 +5957,22 @@
       <c r="C178" t="n">
         <v>0.3009031037002434</v>
       </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3120,6 +5988,22 @@
       <c r="C179" t="n">
         <v>0.3587446948146539</v>
       </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3135,6 +6019,22 @@
       <c r="C180" t="n">
         <v>1</v>
       </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3150,6 +6050,22 @@
       <c r="C181" t="n">
         <v>0.8939209930408073</v>
       </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3165,6 +6081,22 @@
       <c r="C182" t="n">
         <v>0.679557914617603</v>
       </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3180,6 +6112,22 @@
       <c r="C183" t="n">
         <v>0.5143275788177222</v>
       </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -3195,6 +6143,22 @@
       <c r="C184" t="n">
         <v>0.5315311424456179</v>
       </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -3210,6 +6174,22 @@
       <c r="C185" t="n">
         <v>0.3146638514473746</v>
       </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3225,6 +6205,22 @@
       <c r="C186" t="n">
         <v>0.3655504509909163</v>
       </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3240,6 +6236,22 @@
       <c r="C187" t="n">
         <v>0.3309849475492287</v>
       </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -3255,6 +6267,22 @@
       <c r="C188" t="n">
         <v>0.4486635109382587</v>
       </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -3270,6 +6298,22 @@
       <c r="C189" t="n">
         <v>0.4162672288304866</v>
       </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -3285,6 +6329,22 @@
       <c r="C190" t="n">
         <v>0.4484383011497396</v>
       </c>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -3300,6 +6360,22 @@
       <c r="C191" t="n">
         <v>0.5095861097987763</v>
       </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -3315,6 +6391,22 @@
       <c r="C192" t="n">
         <v>0.4268673138745936</v>
       </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -3330,6 +6422,22 @@
       <c r="C193" t="n">
         <v>0.5064810655160216</v>
       </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -3345,6 +6453,22 @@
       <c r="C194" t="n">
         <v>0.5015655716502836</v>
       </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -3360,6 +6484,22 @@
       <c r="C195" t="n">
         <v>0.8671845554368587</v>
       </c>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -3375,6 +6515,22 @@
       <c r="C196" t="n">
         <v>0.7812016291128467</v>
       </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -3390,6 +6546,22 @@
       <c r="C197" t="n">
         <v>0.5874914476988874</v>
       </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -3405,6 +6577,22 @@
       <c r="C198" t="n">
         <v>0.5173113489035343</v>
       </c>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -3420,6 +6608,22 @@
       <c r="C199" t="n">
         <v>0.4704767419253734</v>
       </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -3435,6 +6639,22 @@
       <c r="C200" t="n">
         <v>0.8395649107092363</v>
       </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -3450,6 +6670,22 @@
       <c r="C201" t="n">
         <v>0.7843896694926262</v>
       </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -3465,6 +6701,22 @@
       <c r="C202" t="n">
         <v>0.47332546722554</v>
       </c>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -3480,6 +6732,22 @@
       <c r="C203" t="n">
         <v>0.3558822731329898</v>
       </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -3495,6 +6763,22 @@
       <c r="C204" t="n">
         <v>0.08415073474362206</v>
       </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -3510,6 +6794,22 @@
       <c r="C205" t="n">
         <v>1</v>
       </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -3525,6 +6825,22 @@
       <c r="C206" t="n">
         <v>0.9999999999999999</v>
       </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -3540,6 +6856,22 @@
       <c r="C207" t="n">
         <v>0.9999999999999996</v>
       </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -3555,6 +6887,22 @@
       <c r="C208" t="n">
         <v>0.5801528968960961</v>
       </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -3570,6 +6918,22 @@
       <c r="C209" t="n">
         <v>1</v>
       </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -3584,6 +6948,22 @@
       </c>
       <c r="C210" t="n">
         <v>0.298585184091822</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C210"/>
+  <dimension ref="A1:K210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,12 +442,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>similar sentence</t>
+          <t>0 th similar sentence</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>similarity</t>
+          <t>0 th similarity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1 th similar sentence</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1 th similarity</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2 th similar sentence</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2 th similarity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>3 th similar sentence</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3 th similarity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>4 th similar sentence</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>4 th similarity</t>
         </is>
       </c>
     </row>
@@ -465,6 +505,38 @@
       <c r="C2" t="n">
         <v>0.3517124145371124</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>庞蒂亚克</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3195646727982874</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>阿尔宾娜</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.229803012860394</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>阿斯顿马丁</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.2089675596904646</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>阿尔法罗密欧</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0.186460609760893</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -480,6 +552,38 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>阿尔法罗密欧</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3302867335442647</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>梅甘娜</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.302668698562868</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>宾利欧陆</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3007240319398983</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>阿尔伯特公园赛道</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2889174174382623</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -495,6 +599,38 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>风景爱尔法</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3363877229096593</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>阿尔宾娜</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3302867335442647</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>欧陆</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2492467116170458</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>利欧</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2492467116170458</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -510,6 +646,38 @@
       <c r="C5" t="n">
         <v>0.4810177308490582</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>雷诺</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3965801882860993</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>摩雷</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3920667600883652</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>法雷奥集团</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2625681614171533</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>阿尔宾娜</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2532520274388405</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -525,6 +693,34 @@
       <c r="C6" t="n">
         <v>0.4415099255795818</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>阿尔宾娜</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2324514807178435</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>阿斯顿马丁</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2113759000259591</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>阿尔伯特公园赛道</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1649856959364779</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -540,6 +736,38 @@
       <c r="C7" t="n">
         <v>0.4356841014661533</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>美的客车</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3691803680722135</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>美国汽车协会</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3136031867089001</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>直拉杆</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2860241999331971</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>斜拉杆</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.2623593104316885</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -555,6 +783,38 @@
       <c r="C8" t="n">
         <v>0.9999999999999999</v>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>奥丁</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3881385624094392</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>马自达普力马</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2745476701679707</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>野马</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2590351078017251</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>马自达</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2288051591137401</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -570,6 +830,38 @@
       <c r="C9" t="n">
         <v>0.5173804764714193</v>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>米纳尔迪车队</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.403824614563678</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>奥迪</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3866117426848623</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>新爱丽舍</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.313433049845567</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>比亚迪</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0.300899189954871</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -585,6 +877,38 @@
       <c r="C10" t="n">
         <v>0.5111704571152746</v>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>中国汽车网</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4585566465236753</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>汽车信用卡</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4480957131335989</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>浙江汽车网</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3963339768835059</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>汽车网络营销</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3444086971564483</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -600,6 +924,30 @@
       <c r="C11" t="n">
         <v>0.9094722286009985</v>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>舍弗勒集团</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2873998879456851</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>风景爱尔法</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2532059863409493</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -615,6 +963,38 @@
       <c r="C12" t="n">
         <v>0.4378755090985824</v>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>亚星客车</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3986254837072654</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>金旅客车</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0.3823697130649362</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>逍客</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0.3765941753682606</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>美的客车</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0.3607712767790032</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -630,6 +1010,38 @@
       <c r="C13" t="n">
         <v>0.7243158967419079</v>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>补强板</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.3475003601083664</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>预紧式安全带</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3251767828623908</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>安全带提醒装置</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2947437960648011</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>全面安全防护</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2737577483327365</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -645,6 +1057,38 @@
       <c r="C14" t="n">
         <v>0.6714173812276116</v>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>气囊电脑</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5466310312550331</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>前排侧气囊</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.5097396994841191</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>全面安全防护</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4418294169261212</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>气囊控制单元</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0.4336441030040352</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -660,6 +1104,38 @@
       <c r="C15" t="n">
         <v>0.5634911761996977</v>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>凸缘</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3797608029835328</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>安全开关</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3528784711312963</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>被动安全</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0.3414823401769204</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>圆镜</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0.3038611784873916</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -675,6 +1151,30 @@
       <c r="C16" t="n">
         <v>0.3295204374410797</v>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>下横臂</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2976007162769062</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>异形钢管</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2530582828829984</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -690,6 +1190,38 @@
       <c r="C17" t="n">
         <v>0.3517168254242238</v>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>雷诺</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3502230409868933</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>摩雷</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3462371975298165</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>法雷奥集团</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2318759803793157</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>雷诺方程式</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2141518480989499</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -705,6 +1237,38 @@
       <c r="C18" t="n">
         <v>0.4075549912096094</v>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>奥迪</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.3733433481177921</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>菜瓜布</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3355144485052475</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>奥丁</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0.3295528150087465</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>奥克斯</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0.3181437006145091</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -720,6 +1284,38 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>新奥德赛</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8660048424773732</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>梅赛德斯</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5569084075341578</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>奥迪</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3974247471577961</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>德尔福</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3613076626431637</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -735,6 +1331,38 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>一汽奥迪</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7459251051343634</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>奥迪勒芒</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0.6360218079296234</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>奥迪汽车公司</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6277718302177135</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>奥丁</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4366837695398988</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -750,6 +1378,38 @@
       <c r="C21" t="n">
         <v>0.4455005281592641</v>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>斯巴鲁傲虎</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.3553250019734074</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>厦门金龙汽车</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3189396726295419</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>双龙主席</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0.3115729584168032</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>克莱斯勒大捷龙</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0.2784057046072088</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -765,6 +1425,34 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>厦门金龙汽车</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.3115288295963586</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>双龙主席</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3043332874496437</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>克莱斯勒大捷龙</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0.271936703873069</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -780,6 +1468,38 @@
       <c r="C23" t="n">
         <v>0.9130883597748631</v>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>奥克斯</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4498222746568028</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>奥克斯汽车</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0.4005907263572682</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>沃克斯豪尔</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0.3042422819085606</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>比亚迪</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2936697713786756</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -795,6 +1515,38 @@
       <c r="C24" t="n">
         <v>0.6598339831664177</v>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>长城哈弗</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5911689669910714</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>陆霸</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3749761344442136</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>起亚霸锐</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0.2632975282418753</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>舍弗勒集团</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2556601865918501</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -810,6 +1562,38 @@
       <c r="C25" t="n">
         <v>0.4304958544191163</v>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>后钢板弹簧</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.3851291454057142</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>铅块</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3789983215383096</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>点火模块</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2987252629007519</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>气门弹簧</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0.277854559978932</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -825,6 +1609,38 @@
       <c r="C26" t="n">
         <v>0.3732281819169265</v>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>中国汽车技术研究中心</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3300994779643668</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>中间板</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3194490110485332</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>后钢板弹簧</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2878826046100897</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>分缸线</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2564341831914405</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -840,6 +1656,38 @@
       <c r="C27" t="n">
         <v>0.4263055469980727</v>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>金旅客车</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.3554357046136978</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>金牛座</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0.351865412382574</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>厦门金龙汽车</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0.2902624502808572</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>金港国际赛车场</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0.2487493196228241</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -855,6 +1703,38 @@
       <c r="C28" t="n">
         <v>0.3946319543127136</v>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>泡沫清洗剂</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.3297142203090068</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>直列发动机</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2550063803256694</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>金鹰</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0.2538151652112259</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>直列四缸</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0.2508758058186049</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -870,6 +1750,38 @@
       <c r="C29" t="n">
         <v>0.6361374393924164</v>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>大灯开关</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5362220462264244</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>油箱开关</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0.526361164292764</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>安全开关</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0.525827547334715</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>制动灯开关</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0.5024530774843917</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -885,6 +1797,38 @@
       <c r="C30" t="n">
         <v>0.859973955751253</v>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>右半轴</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7981632630208926</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0.3681836527048102</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>转弯半径</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0.3437639426648121</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>摇臂轴</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0.3315835562179311</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -900,6 +1844,38 @@
       <c r="C31" t="n">
         <v>0.6209474814845866</v>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>右半轴</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5763168345643481</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>齿轮齿条式转向</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0.495026881981796</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>行星齿轮</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0.4596683575650869</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>飞轮齿圈</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0.4484662670832209</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -915,6 +1891,38 @@
       <c r="C32" t="n">
         <v>0.542927927863063</v>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>右半轴</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.503904942225598</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>齿轮齿条式转向</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0.4328287452399642</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>行星齿轮</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0.4019128772055822</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>飞轮齿圈</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0.3921182843383832</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -930,6 +1938,38 @@
       <c r="C33" t="n">
         <v>0.5231967932281847</v>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>右半轴</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.4855919843761694</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>螺帽</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0.3575536108089373</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>自攻螺钉</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0.2726253894205336</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0.2239980700879681</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -945,6 +1985,38 @@
       <c r="C34" t="n">
         <v>0.5622756956351156</v>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>右半轴</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5218620877342915</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>钢管车</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0.2907960385160382</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>暖风管</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0.2673007589529691</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>制动管路</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0.2581915732761593</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -960,6 +2032,38 @@
       <c r="C35" t="n">
         <v>0.5167472985763473</v>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>右半轴</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.4796060476373651</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>凸缘</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0.3881483859800924</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0.2212368254210418</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>转弯半径</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0.2065633354731245</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -975,6 +2079,34 @@
       <c r="C36" t="n">
         <v>0.5207631754879589</v>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>多宝</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.4840158095966697</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>来展厅</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0.4235339685366572</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>马来西亚大奖赛</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0.319718929807157</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -990,6 +2122,38 @@
       <c r="C37" t="n">
         <v>0.4984338704900484</v>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>多宝</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.4632621596747686</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>马自达普力马</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0.3739062775571083</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>野马</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0.3527797298570797</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>马自达</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0.3116095841488626</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1005,6 +2169,38 @@
       <c r="C38" t="n">
         <v>0.6930845862941679</v>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>前保</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.3565729784919298</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>全保</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0.3444774410503352</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>中华骏捷</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0.3418750705681819</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>全时数字轿车</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0.2940615063457542</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1020,6 +2216,30 @@
       <c r="C39" t="n">
         <v>0.5089302742637222</v>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>多宝</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.4730178905127024</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>猎豹飞腾</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0.4017012371966824</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1035,6 +2255,38 @@
       <c r="C40" t="n">
         <v>0.8363457660435362</v>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>前保险杠下部</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7436149438009176</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>保险阀</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0.59405425525095</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>保险杆</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0.5863420021968305</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>前保险杆</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0.5292774118917938</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1050,6 +2302,38 @@
       <c r="C41" t="n">
         <v>0.5359174140283229</v>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>前保</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.4709513257041054</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>全保</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0.4549758880326511</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>首次保养</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0.4471303922900882</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>汽车保姆</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0.3531248137620608</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1065,6 +2349,38 @@
       <c r="C42" t="n">
         <v>0.5264985475165743</v>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>温度传感器</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.4816718488102774</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>水温传感器</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0.4789925685674882</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>曲轴位置传感器</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0.4006670962359606</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>防爆膜</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0.3330395626698408</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1080,6 +2396,38 @@
       <c r="C43" t="n">
         <v>0.4735399123608425</v>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>东风日产北京</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.4128721765389218</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>铃木北斗星</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0.3995782958958167</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>北京奔驰戴克</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0.3842591158760723</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>铃木</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0.3572384621775994</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1095,6 +2443,38 @@
       <c r="C44" t="n">
         <v>0.8166563292265862</v>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>奔驰车队</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5903673131469218</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>北京现代</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0.4424087123756378</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>东风日产北京</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0.3857293614125685</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>驰野</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3626411137090549</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1110,6 +2490,38 @@
       <c r="C45" t="n">
         <v>0.7913595327585502</v>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>北京现代</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.4565508597680379</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>东风日产北京</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0.3980596825162839</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>戴姆勒</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0.3420802280405162</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>戴姆勒克莱斯勒</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0.3394609699572055</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1125,6 +2537,38 @@
       <c r="C46" t="n">
         <v>0.6689520298636252</v>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>克莱斯勒大捷龙</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.6060680238690657</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>北京奔驰戴克</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0.441074082564539</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>奥克斯</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0.4126480416334569</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>欧菲莱斯</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0.4101558175662076</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1140,6 +2584,38 @@
       <c r="C47" t="n">
         <v>0.4329520718459068</v>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>中国三菱拉力艺车队</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0.4024064294122198</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>东风日产北京</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0.3774842617782191</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>北京奔驰戴克</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0.3513236709336749</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>三四档</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0.3026970795644056</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1155,6 +2631,38 @@
       <c r="C48" t="n">
         <v>1</v>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>现代悦动</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.5669260012700592</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>现代王</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0.5589837115858178</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>四川现代</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0.5196561185106578</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>现代新胜达</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0.4802668158966309</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1170,6 +2678,38 @@
       <c r="C49" t="n">
         <v>1</v>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>北汽控股公司</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.7939779098936559</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>汽车遥控</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0.4008516808590088</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>浙江吉利控股集团</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0.3861246374722097</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>遥控</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3030401803739589</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1185,6 +2725,38 @@
       <c r="C50" t="n">
         <v>0.3531187355677898</v>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>北汽控股</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0.3515090288892341</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>制动</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0.3434019204718448</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>北汽控股公司</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0.2790904040662228</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>制动灯</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2740797424211759</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1200,6 +2772,38 @@
       <c r="C51" t="n">
         <v>0.3949238451291245</v>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>暖胎圈</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.392424656071892</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>汽车维修设备</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0.3061300763874665</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>邓禄普轮胎</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0.2999379988958648</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>工具与设备</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0.2743963180397094</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1215,6 +2819,38 @@
       <c r="C52" t="n">
         <v>0.3671922987760689</v>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>轮胎换位</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0.3016905498326083</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>暖胎圈</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0.299781367264598</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>汽车维修设备</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0.2338591407045483</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>邓禄普轮胎</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0.2291288837547896</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1230,6 +2866,38 @@
       <c r="C53" t="n">
         <v>0.4280258142784372</v>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>从动盘总成</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.369418515595562</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>托架</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0.2853436374946661</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>轮胎换位</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0.2557040977890226</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>暖胎圈</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2540859304107654</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1245,6 +2913,38 @@
       <c r="C54" t="n">
         <v>0.468086550070574</v>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>尾灯罩</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.4096216056010596</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>轮胎换位</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0.3059286060833737</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>暖胎圈</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0.3039926039046043</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>汽车维修设备</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2371443221383434</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1260,6 +2960,38 @@
       <c r="C55" t="n">
         <v>0.3041956318566596</v>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>支持环</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0.2820862075222427</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>轮胎换位</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0.2725978762947635</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>暖胎圈</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0.2708728003393271</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>内骨架</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>0.2512044939508534</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1275,6 +3007,38 @@
       <c r="C56" t="n">
         <v>0.4336957809520434</v>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>叉车用</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.2839053291992196</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>汽车用柴油</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0.2626362362801685</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>农用汽车</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0.2571559495936339</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>通用别克</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2352437277014695</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1290,6 +3054,38 @@
       <c r="C57" t="n">
         <v>0.6273283317372443</v>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>北京奔驰戴克</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0.4863115356389215</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>驰野</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0.3853449197073385</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>中高级车</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0.3816070228689983</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>超级维特拉</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2964774833528416</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1305,6 +3101,38 @@
       <c r="C58" t="n">
         <v>0.4728081602326013</v>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>斯巴鲁傲虎</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0.440358768847025</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>北京奔驰戴克</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0.3665258698400957</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>如虎</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0.3007701099056123</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>驰野</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>0.2904288126717637</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1320,6 +3148,38 @@
       <c r="C59" t="n">
         <v>0.5811017305795666</v>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>北京奔驰戴克</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.4504761871315403</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>风骏</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0.4257289125815382</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>奇骏</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0.35907165515554</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>驰野</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>0.3569496041919067</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1335,6 +3195,38 @@
       <c r="C60" t="n">
         <v>0.5876650738662226</v>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>东风本田</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0.3781805066667648</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>前格栅</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0.3123638493023295</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>汽车价格</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0.2996083098579579</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>下格栅</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>0.2949773861483733</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1350,6 +3242,38 @@
       <c r="C61" t="n">
         <v>0.7835055918063863</v>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>四川丰田</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0.3349646747188487</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>丰田喜一郎</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0.2838345876118146</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>丰田普瑞维亚</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0.2781443265000827</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>丰田兰德酷路泽</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>0.2481437197018552</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1365,6 +3289,38 @@
       <c r="C62" t="n">
         <v>0.471198930046452</v>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>随车工具</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.4424199329056409</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>工具与设备</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0.3541527132935532</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>锁芯</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0.3015574999193158</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>模具</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>0.2960488164847598</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1380,6 +3336,38 @@
       <c r="C63" t="n">
         <v>1</v>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>比亚迪集团</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0.7641367294465595</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>奥迪</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0.3932664722389912</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>诺亚</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0.355639091936357</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>奥斯莫比</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>0.3216225113756621</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1395,6 +3383,38 @@
       <c r="C64" t="n">
         <v>0.5360721197465315</v>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>油箱开关</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.5262139948933144</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>安全开关</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0.5256805271333685</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>制动灯开关</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0.5023125927323216</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>温控开关</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0.5001719822821891</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1410,6 +3430,38 @@
       <c r="C65" t="n">
         <v>0.5534370386869304</v>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>变扭器</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.5017873270124581</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>扭矩扳手</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0.3891401225273842</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0.3733017986597219</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>双离合变速器</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>0.3257467942246079</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1425,6 +3477,38 @@
       <c r="C66" t="n">
         <v>1</v>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>扭矩</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.4427355636270304</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>低扭</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0.4319052257383716</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0.4018795781194456</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>扭力杆</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>0.3995869319057145</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1440,6 +3524,38 @@
       <c r="C67" t="n">
         <v>0.5524000589758974</v>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>汽车维修设备</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.3493522362068906</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>工具与设备</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0.3131380243500776</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>扭矩</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0.2445671514582987</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>低扭</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>0.2385844721698747</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1455,6 +3571,38 @@
       <c r="C68" t="n">
         <v>0.7467055707602195</v>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>变扭器</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.5999184110045968</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>维修厂</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0.4217811924535725</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>汽车维修技术</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0.3558049611634998</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>工具与设备</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3400746667940056</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1470,6 +3618,38 @@
       <c r="C69" t="n">
         <v>0.6671791718554007</v>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>变扭器</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.60235630108451</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>双离合变速器</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0.5821870593327386</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>手动变速箱</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0.5228008595157032</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>自动变速箱</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>0.5188960101913087</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1485,6 +3665,38 @@
       <c r="C70" t="n">
         <v>0.9999999999999999</v>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>车体结构</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.4652090302966564</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>结构完整性</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0.3473767511762435</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0.3322862982043025</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>全铝车身框架结构</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>0.3169454462228326</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1500,6 +3712,38 @@
       <c r="C71" t="n">
         <v>0.5321799119052236</v>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>变扭器</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.4804735171142109</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>双离合变速器</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0.4643853870414406</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>手动变速箱</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0.4170155890617976</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>自动变速箱</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>0.4139008599798324</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1515,6 +3759,38 @@
       <c r="C72" t="n">
         <v>0.3588669959822346</v>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>变扭器</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.323999617194313</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>双离合变速器</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0.3131508444747318</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>盖垫</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0.3022490186965611</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>手动变速箱</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>0.2812077802572547</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1530,6 +3806,38 @@
       <c r="C73" t="n">
         <v>0.3586946815960778</v>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.3486423616079474</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>汽车挂件</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0.3385146550583322</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>变扭器</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0.3147684043485798</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>从动盘总成</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0.3095805262367823</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1545,6 +3853,38 @@
       <c r="C74" t="n">
         <v>0.4513804844744989</v>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>变扭器</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.4075245308597869</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>双离合变速器</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0.3938790177840715</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>手动变速箱</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0.3537012472910764</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>自动变速箱</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0.3510594190473327</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1560,6 +3900,38 @@
       <c r="C75" t="n">
         <v>0.4712012157412135</v>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>变扭器</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.425419487528482</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>双离合变速器</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0.4111747814061619</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>手动变速箱</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0.3692327503409258</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>自动变速箱</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0.3664749158242635</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1575,6 +3947,38 @@
       <c r="C76" t="n">
         <v>0.4869350236491115</v>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.4732888032776014</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>变扭器</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0.427304245865754</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>从动盘总成</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0.4202616001821988</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>双离合变速器</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>0.4129964306724743</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1590,6 +3994,38 @@
       <c r="C77" t="n">
         <v>0.7937118065745441</v>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>自动变速箱</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.78778349763003</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>自动变速箱油</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0.7203933084183447</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>机械变速箱</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0.6851158335406423</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>0.4394565402804292</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1605,6 +4041,38 @@
       <c r="C78" t="n">
         <v>0.4819077485426158</v>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>自动变速箱</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.4783083337519433</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>自动变速箱油</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0.4373919027654601</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>机械变速箱</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0.4159729338755404</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>固铂</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>0.3283094100832669</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1620,6 +4088,38 @@
       <c r="C79" t="n">
         <v>0.5513583231295194</v>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>自动变速箱</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.5472401753943262</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>自动变速箱油</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0.5004270356484376</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>机械变速箱</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0.4759212525270335</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>0.3052720384531175</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1635,6 +4135,38 @@
       <c r="C80" t="n">
         <v>0.7058595082643525</v>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>手动变速箱</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.5911496656597486</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>自动变速箱</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0.5867343126040825</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>机械变速箱</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0.5102683273462347</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>油箱开关</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>0.4189482430132019</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1650,6 +4182,38 @@
       <c r="C81" t="n">
         <v>0.5997146396524899</v>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>手动变速箱</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.5022544919647861</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>自动变速箱</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0.4985031054130509</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>机械变速箱</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0.4335358275657309</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>油箱开关</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>0.3559481619926134</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1665,6 +4229,38 @@
       <c r="C82" t="n">
         <v>0.6950187437216482</v>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>手动变速箱</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.5820706431915612</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>自动变速箱</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0.5777231022178873</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>机械变速箱</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0.5024315004343722</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>油箱开关</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>0.4125139324954424</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1680,6 +4276,38 @@
       <c r="C83" t="n">
         <v>0.6478648388868301</v>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>水温传感器</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.6442611168359884</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>转速传感器</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0.6300134803074575</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>自动变速箱油</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0.5496673986320048</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>手动变速箱</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4603404716107916</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1695,6 +4323,38 @@
       <c r="C84" t="n">
         <v>0.5097326839651323</v>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>自动变速箱</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.5059254420863663</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>自动变速箱油</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0.4626465318632205</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>机械变速箱</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0.4399908502871461</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>0.282225059407802</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1710,6 +4370,38 @@
       <c r="C85" t="n">
         <v>1</v>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>美的客车</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.4828092795632086</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>标枪</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0.4155769227027586</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>汽车排放标准</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0.3508175419214496</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>标志灯具</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>0.3456174584411126</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1725,6 +4417,38 @@
       <c r="C86" t="n">
         <v>0.2583173538374011</v>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>马自达普力马</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.2242991318293576</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>长城轿车</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0.2124232179694948</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>野马</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0.2116257251708021</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>马自达</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>0.1869285523927099</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1740,6 +4464,38 @@
       <c r="C87" t="n">
         <v>0.6987761701510663</v>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>别克凯越</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.6872119791957059</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>上海通用别克</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0.5539209492475339</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>别克凯越旅行车</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0.544667300463019</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>别克高尔夫挑战赛</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>0.4661560179213806</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1755,6 +4511,38 @@
       <c r="C88" t="n">
         <v>0.4402422261326315</v>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>别克凯越</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.4329565667368481</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>上海通用别克</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0.3489806925521166</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>别克凯越旅行车</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0.3431507184992469</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>英格尔</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>0.3131672125497885</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1770,6 +4558,38 @@
       <c r="C89" t="n">
         <v>0.7400996433381741</v>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>利欧</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.4876440575277056</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>吉利优利欧</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0.4875376122408324</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>阿尔宾娜</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0.4063291134468069</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>普利茅斯</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>0.3194865453722648</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1785,6 +4605,38 @@
       <c r="C90" t="n">
         <v>0.3745619131906665</v>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>托架</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.247760418533073</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>支持环</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0.229752795632026</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>前半轴</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0.2094814238756955</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>内骨架</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>0.2046003428082745</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1800,6 +4652,38 @@
       <c r="C91" t="n">
         <v>0.4659549173099324</v>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>电动玻璃</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.4572696703956067</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>前门玻璃</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0.4286159470790749</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>挡风玻璃</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0.4256374344992818</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>风挡玻璃</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>0.4256374344992818</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1815,6 +4699,38 @@
       <c r="C92" t="n">
         <v>0.5190573644497078</v>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>车门玻璃</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.5020016485159264</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>电动玻璃</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0.492644502348373</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>前门玻璃</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0.4617740987821616</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>风挡玻璃</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>0.4585651655364009</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1830,6 +4746,38 @@
       <c r="C93" t="n">
         <v>0.9999999999999999</v>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>车门玻璃</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.4475828833661719</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>电动玻璃</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0.4392400851420353</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>前门玻璃</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0.4117161431795144</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>风挡玻璃</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4088550697170801</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1845,6 +4793,38 @@
       <c r="C94" t="n">
         <v>0.9051035816682931</v>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>车门玻璃</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.4468535215998024</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>电动玻璃</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0.4385243184398994</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>前门玻璃</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0.4110452283063318</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>挡风玻璃</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4081888171258387</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1860,6 +4840,38 @@
       <c r="C95" t="n">
         <v>0.7735679260564585</v>
       </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>大灯开关</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.3908782951876328</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>油箱开关</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0.38369021937762</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>安全开关</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0.3833012400577408</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>车门玻璃</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>0.3819138040729436</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1875,6 +4887,38 @@
       <c r="C96" t="n">
         <v>0.5900789603234259</v>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>电动玻璃</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.5790800819363381</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>前门玻璃</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0.542793397032082</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>挡风玻璃</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0.5390214492725406</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>风挡玻璃</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>0.5390214492725406</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1890,6 +4934,30 @@
       <c r="C97" t="n">
         <v>0.5296359203592478</v>
       </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>起亚霸锐</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.3751939830269108</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>上海大众斯柯达明锐</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0.2599660881187839</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1905,6 +4973,38 @@
       <c r="C98" t="n">
         <v>0.3500985475395352</v>
       </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>膜片</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0.335828016624119</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>罩垫</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0.3225858365158827</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>汽车芯片</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0.2979413198349606</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>叶片泵</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>0.2818900243841712</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1920,6 +5020,38 @@
       <c r="C99" t="n">
         <v>0.3547776987641454</v>
       </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>油箱开关</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.2909977512683748</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>手动变速箱</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0.2862927011355213</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>自动变速箱</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0.2841543537318011</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>车载冰箱</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>0.2826010211174912</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1935,6 +5067,38 @@
       <c r="C100" t="n">
         <v>0.3446910454176299</v>
       </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>补强板</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.3250032403383601</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>空间容积</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0.2961418183601558</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>变扭器</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0.1601046282420285</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>分电器盖</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>0.1385029141991363</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1950,6 +5114,38 @@
       <c r="C101" t="n">
         <v>0.9999999999999998</v>
       </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>奥迪</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0.3665113756743792</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>加油站</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0.3435400603836704</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>菜瓜布</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0.3224777582805791</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>加注口</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>0.3038121969398914</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1965,6 +5161,38 @@
       <c r="C102" t="n">
         <v>0.38585718975183</v>
       </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>补强板</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0.3638180876595066</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>轮胎换位</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0.2746912440461078</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>暖胎圈</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0.2729529206713489</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>邓禄普轮胎</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>0.2086233664276889</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1980,6 +5208,34 @@
       <c r="C103" t="n">
         <v>0.2870994788668493</v>
       </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>制动摩擦片</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.2647552208680101</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>菜瓜布</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0.2363509842739566</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>离合器摩擦片</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0.2294849061351277</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1995,6 +5251,38 @@
       <c r="C104" t="n">
         <v>0.6407894628555957</v>
       </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>侧转向灯</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.5261442361752329</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>罩垫</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0.4929215483548363</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>侧围</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0.3968031651266765</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>侧围板</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>0.3486909871628519</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2010,6 +5298,38 @@
       <c r="C105" t="n">
         <v>0.6759519004556321</v>
       </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>侧转向灯</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.4872940580514368</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>从动盘总成</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0.4310612651054989</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>侧围</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0.367503454923022</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>侧围板</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>0.3229438516246658</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2025,6 +5345,38 @@
       <c r="C106" t="n">
         <v>0.3638894194569801</v>
       </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>横滑</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0.3393255671684091</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>试乘试驾车</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0.3355081742058455</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>试驾</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0.3045041415251148</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>车载电台</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>0.2891590627540187</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2040,6 +5392,38 @@
       <c r="C107" t="n">
         <v>0.3968027412557966</v>
       </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>圆锥滚子轴承</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.3729310954650729</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>行星齿轮</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0.3684601200245195</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>飞轮齿圈</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0.3594807688563472</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>角齿</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>0.3038458440821377</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2055,6 +5439,38 @@
       <c r="C108" t="n">
         <v>0.3956510715862733</v>
       </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>轮缸</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.2997474495627594</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>砂纸</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0.2858242035840775</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>盖垫</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0.2726579436769099</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>罩垫</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>0.2512309504334175</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2070,6 +5486,38 @@
       <c r="C109" t="n">
         <v>0.4201734438913668</v>
       </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>前大灯总成</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.4196272330306586</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>从动盘总成</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0.3621699074178207</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>合成机油</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0.2292752521511174</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>电源总开关</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>0.1957967399050426</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2085,6 +5533,38 @@
       <c r="C110" t="n">
         <v>0.3047358137809142</v>
       </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>发动机转速</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0.2632603791240807</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>手动变速箱</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0.2606168474999831</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>自动变速箱</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0.258670275488168</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>转速传感器</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>0.2419178363247547</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2100,6 +5580,38 @@
       <c r="C111" t="n">
         <v>0.399088079678287</v>
       </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.3849794078148787</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>轮边减速器</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0.3491812748344364</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>双离合变速器</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0.3359367899871725</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>变速器结构原理</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>0.2873855805471291</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2115,6 +5627,38 @@
       <c r="C112" t="n">
         <v>0.3535681797391883</v>
       </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>转速传感器</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0.3275292432561697</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0.315950339114265</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>轮边减速器</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0.2865710216099193</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>双离合变速器</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>0.2757013506770288</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2130,6 +5674,38 @@
       <c r="C113" t="n">
         <v>0.3022493195453321</v>
       </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>车体结构</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0.2869668934187259</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>转速传感器</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0.2799898197241603</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0.2700915423945858</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>轮边减速器</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>0.2449765031086833</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2145,6 +5721,38 @@
       <c r="C114" t="n">
         <v>0.5793684450930499</v>
       </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>转速传感器</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0.2409054738494548</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0.2323889170949139</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>全时数字轿车</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0.2270340509125311</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>曲轴位置传感器</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>0.2191218285326696</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2160,6 +5768,38 @@
       <c r="C115" t="n">
         <v>0.7993135606316355</v>
       </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>齿轮齿条式转向</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0.3799996056483395</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>飞轮齿圈</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0.3442580814115741</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>星光</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0.3261399493967549</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>轮边减速器</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>0.319764218209699</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2175,6 +5815,38 @@
       <c r="C116" t="n">
         <v>0.5589526521023601</v>
       </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>骨架油封</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0.4673288492547612</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>自动变速箱油</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0.3090553304692688</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>封闭货车</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0.3066934498678401</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>转速传感器</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>0.2885600623744903</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2190,6 +5862,38 @@
       <c r="C117" t="n">
         <v>0.4663294986202767</v>
       </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>从动盘总成</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0.4024774801238054</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>转速传感器</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0.2944569341183608</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0.2840472113706152</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>轮边减速器</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>0.2576344743801249</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2205,6 +5909,38 @@
       <c r="C118" t="n">
         <v>0.4344785145597593</v>
       </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>发动机转速</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0.4238278589948081</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>发动机烧机油</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0.4224502200319806</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>转子发动机</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0.4088201234498687</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>从动盘总成</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>0.4045878731451249</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2220,6 +5956,38 @@
       <c r="C119" t="n">
         <v>0.416085598371014</v>
       </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>前大灯总成</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0.3844896188227676</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>合成机油</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0.3624912565670685</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>桥厂</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0.3624608640202184</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>从动盘总成</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>0.3318434998759507</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2235,6 +6003,38 @@
       <c r="C120" t="n">
         <v>0.6257237510278837</v>
       </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>温度传感器</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0.5724489030857478</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>水温传感器</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0.5692646791377791</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>曲轴位置传感器</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0.4761777967912115</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>汽车用柴油</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>0.4445000447038931</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2250,6 +6050,38 @@
       <c r="C121" t="n">
         <v>0.5636612916319808</v>
       </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>空调滤芯</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0.4693880388403949</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>汽车用柴油</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0.3791102525214803</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>锁芯</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0.3151848257333149</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>汽车芯片</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>0.2855969134470182</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2265,6 +6097,38 @@
       <c r="C122" t="n">
         <v>0.7035035337735487</v>
       </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>发动机漏油</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0.684961201347777</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>轿车发动机</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0.5730792084671976</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>发动机转速</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0.5590309435788782</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>转子发动机</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>0.5392356696613784</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2280,6 +6144,38 @@
       <c r="C123" t="n">
         <v>0.5642548212908957</v>
       </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>钢管车</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0.3805042216752575</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>油封漏油</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0.3579313181265602</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>暖风管</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0.349760841852031</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>制动管路</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>0.3378415474086207</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2295,6 +6191,38 @@
       <c r="C124" t="n">
         <v>0.432569224551672</v>
       </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>机滤芯</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0.3215720574811213</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>清障车</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0.2862626589872753</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>油封漏油</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0.2743974298182256</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>空调滤网</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>0.2692233300049805</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2310,6 +6238,38 @@
       <c r="C125" t="n">
         <v>0.4282374029203307</v>
       </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>汽车信用卡</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0.2934407278861312</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>油封漏油</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0.2716495673846394</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>优卡二手车网</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0.2441584102065918</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>油品</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>0.2407114764229116</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2325,6 +6285,38 @@
       <c r="C126" t="n">
         <v>0.4347635777632597</v>
       </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>钢管车</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0.293182035008743</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>油封漏油</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0.2757894032809635</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>暖风管</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0.2694939754651808</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>制动管路</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>0.2603100484501217</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2340,6 +6332,38 @@
       <c r="C127" t="n">
         <v>0.5636612916319808</v>
       </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>空调滤芯</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0.4693880388403949</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>汽车用柴油</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0.3791102525214803</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>锁芯</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0.3151848257333149</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>汽车芯片</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>0.2855969134470182</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2355,6 +6379,38 @@
       <c r="C128" t="n">
         <v>0.4899839057010379</v>
       </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>油箱开关</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0.4443886095241967</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>盖板</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0.4129232711218531</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>第一箱油</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0.4015721457634783</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>自动变速箱油</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>0.3968171114064981</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2370,6 +6426,38 @@
       <c r="C129" t="n">
         <v>0.454108618067051</v>
       </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>汽车用柴油</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0.4370907851185188</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>合成机油</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0.4281270430267151</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>油箱开关</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0.3964174414193347</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>从动盘总成</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>0.3919299397590869</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2385,6 +6473,38 @@
       <c r="C130" t="n">
         <v>0.5092073885999808</v>
       </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>飞轮齿圈</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0.4201962146329284</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>飞碟</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0.3496728188228634</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>装饰灯</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0.3254979291257341</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>飞碟汽车</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>0.3128091852206796</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2400,6 +6520,38 @@
       <c r="C131" t="n">
         <v>0.3703064961177809</v>
       </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>跃进</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0.2746905501769897</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>装饰灯</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0.2498671779556995</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>改进剂</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0.231203566038764</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>钢管车</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>0.2309815973191736</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2415,6 +6567,38 @@
       <c r="C132" t="n">
         <v>0.5140031175953369</v>
       </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>前排侧气囊</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0.4057861648544812</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>气囊灯</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0.3378486389652173</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>气门弹簧</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0.275665985637867</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>气囊电脑</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>0.2750577436467343</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2430,6 +6614,38 @@
       <c r="C133" t="n">
         <v>0.3979614042400201</v>
       </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>多气门发动机</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0.3711737148993778</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>装饰灯</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0.3293307575871212</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>门泵</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0.2856295255536687</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>气囊灯</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>0.2579041349060224</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2445,6 +6661,38 @@
       <c r="C134" t="n">
         <v>0.8519418788510176</v>
       </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>江铃福特</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0.5207919583855654</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>福特福克斯两厢</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0.5192059181613761</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>新福特嘉年华</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0.4114672090187891</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>长安志翔</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>0.4027041547302102</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2460,6 +6708,38 @@
       <c r="C135" t="n">
         <v>0.5384847503001124</v>
       </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>江铃集团</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0.5250828949043006</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>比亚迪集团</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>0.487850014380186</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>法雷奥集团</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0.4712351440947725</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>舍弗勒集团</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>0.4389072755794851</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2475,6 +6755,38 @@
       <c r="C136" t="n">
         <v>0.7517696097072639</v>
       </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>铃木集团</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0.5278729674490041</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>昌河铃木</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0.5188663646023763</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>铃木北斗星</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0.4449369916471154</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>铃木吉姆尼</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>0.439394962641109</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2490,6 +6802,38 @@
       <c r="C137" t="n">
         <v>0.9999999999999999</v>
       </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>马自达</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0.7953712157290327</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>一汽马自达</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0.6438747543110558</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>马自达普力马</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0.6362540513885322</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>长安志翔</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>0.3712590096828622</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2505,6 +6849,38 @@
       <c r="C138" t="n">
         <v>1</v>
       </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>沃尔沃客车</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0.8179243035673339</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>沃克斯豪尔</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0.561133290262799</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>长安志翔</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0.2700201576609236</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>长安马自达</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>0.2672022844125674</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2520,6 +6896,38 @@
       <c r="C139" t="n">
         <v>0.7066849427936086</v>
       </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>志翔</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0.4224705266492547</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>长安马自达</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0.3688493993826708</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>东风悦达</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0.3155363007959779</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>现代悦动</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>0.3033456572539127</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2535,6 +6943,38 @@
       <c r="C140" t="n">
         <v>0.7441896137860553</v>
       </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>长城哈弗</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>0.5350655161480347</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>长城嘉誉</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0.529980921945608</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>中国二手车城</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0.3685271398226895</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>林肯城市</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>0.3126294188490322</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2550,6 +6990,38 @@
       <c r="C141" t="n">
         <v>0.6284307620464609</v>
       </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>一汽丰越</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0.3962342805751649</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>四川丰田</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0.3476956167050918</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>长城轿车</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0.3356156689685819</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>长安志翔</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>0.2948100295487466</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2565,6 +7037,38 @@
       <c r="C142" t="n">
         <v>1</v>
       </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>猎豹</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>0.7778655264978031</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>猎豹飞腾</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0.5506717697576372</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>一汽丰越</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0.2490058108907821</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>四川丰田</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>0.2185026213661951</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2580,6 +7084,38 @@
       <c r="C143" t="n">
         <v>0.5410729436881685</v>
       </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>一汽丰越</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0.4852460849200249</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>长城轿车</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0.3633581840068</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>长安汽车工程研究院</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0.3072718341412528</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>赵公口长途汽车站</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>0.3060372205469375</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2595,6 +7131,38 @@
       <c r="C144" t="n">
         <v>0.4053377139736218</v>
       </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>长丰猎豹</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>0.4036346041513273</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>三四档</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0.3049020425353119</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>三角带</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0.2978396613177076</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>三角玻璃</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>0.2804162424685732</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2610,6 +7178,38 @@
       <c r="C145" t="n">
         <v>0.3981553853656099</v>
       </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>电子阀</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>0.2592507812816338</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>叶子板</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0.2558481768455885</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>肖子</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0.2546344804022135</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>一汽丰越</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>0.2510424731019235</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2625,6 +7225,34 @@
       <c r="C146" t="n">
         <v>0.7236250256285893</v>
       </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>昌河铃木利亚纳</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0.5365544764282625</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>育空河</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0.3687333075278018</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>河北荣华</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0.3360840043003707</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2640,6 +7268,38 @@
       <c r="C147" t="n">
         <v>0.4712800507245454</v>
       </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>昌河铃木利亚纳</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0.3494453783545364</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>育空河</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0.2401473770542661</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>河北荣华</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0.2188836496592957</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>上海通用别克</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>0.2037379754956387</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2655,6 +7315,38 @@
       <c r="C148" t="n">
         <v>0.5201511490033812</v>
       </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>铃木集团</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>0.4949886425906796</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>江铃集团</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0.4826693221143387</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>比亚迪集团</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0.4484439276531196</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>法雷奥集团</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>0.4331711235768417</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2670,6 +7362,38 @@
       <c r="C149" t="n">
         <v>0.5194797328391363</v>
       </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>都市骏马</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0.4487387494260811</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>风骏</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0.4311588300730747</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>昌河铃木利亚纳</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0.385184544752959</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>奇骏</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>0.3636513992213617</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2685,6 +7409,38 @@
       <c r="C150" t="n">
         <v>1</v>
       </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>昌河铃木利亚纳</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>0.7414813714633146</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>铃木</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0.690193322398894</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>铃木集团</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0.4846357082059511</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>铃木北斗星</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>0.4084928900526747</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2700,6 +7456,38 @@
       <c r="C151" t="n">
         <v>0.6381865697190694</v>
       </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>昌河铃木利亚纳</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>0.4732034529647637</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>育空河</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0.3251969408713017</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>河北荣华</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0.2964025430927946</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>汽车台</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>0.2689330008575009</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2715,6 +7503,38 @@
       <c r="C152" t="n">
         <v>0.5104438669169593</v>
       </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>风阀</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0.3239847907691619</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>电子阀</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0.2582336819968134</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>非常城市</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0.2499823461789324</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>保险阀</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>0.2437062733398475</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2722,14 +7542,26 @@
           <t>敞篷版</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>轿车</t>
-        </is>
-      </c>
+      <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
         <v>0</v>
       </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2745,6 +7577,38 @@
       <c r="C154" t="n">
         <v>0.3614504845089067</v>
       </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>风阀</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>0.3171067933418746</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>超级维特拉</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0.2567016415221579</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>电子阀</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0.2527515400845455</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>通风阀</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>0.2456101675350676</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2760,6 +7624,34 @@
       <c r="C155" t="n">
         <v>0.4779484441174436</v>
       </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>新车</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0.1629351010354111</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>用车</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0.1563317028844359</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>0.1524572595218356</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>车展</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>0.1503235369146311</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2775,6 +7667,38 @@
       <c r="C156" t="n">
         <v>0.3942652899465809</v>
       </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>车门饰板</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0.3648368025758</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>盖板</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>0.3594615070890338</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>热板</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0.341096224899345</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>前盖板</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>0.3033246690365792</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2790,6 +7714,38 @@
       <c r="C157" t="n">
         <v>0.5727295405155628</v>
       </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>隔热材料</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0.4333675345527381</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>保温隔热材料</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>0.372637242805334</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>热板</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0.3662639278059741</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>全车隔音</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>0.3223165295833827</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2805,6 +7761,38 @@
       <c r="C158" t="n">
         <v>0.3935348061067331</v>
       </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>下横臂</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0.3554141924753856</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>千斤顶</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0.2770122647082177</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>新车</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0.09443491634673196</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>用车</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>0.09060767870408316</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2820,6 +7808,34 @@
       <c r="C159" t="n">
         <v>0.3534444258346016</v>
       </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>千斤顶</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>0.2699403164221935</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>新车</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>0.09202405253352659</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>用车</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0.0882945218523932</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>0.0861062764879974</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2835,6 +7851,38 @@
       <c r="C160" t="n">
         <v>0.6036683136194729</v>
       </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>高位刹车</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>0.6007619943236462</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>高档轿车</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>0.5908514650264511</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>高位刹车灯</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0.5505587856447967</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>高位制动灯</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>0.4853758941671299</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -2850,6 +7898,38 @@
       <c r="C161" t="n">
         <v>0.5840127634515232</v>
       </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>内骨架</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>0.4822772431288861</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>骨架油封</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>0.4214331794308211</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>茶杯架</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0.4187104457615137</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>全铝车身框架结构</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>0.3675731285385319</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2865,6 +7945,38 @@
       <c r="C162" t="n">
         <v>0.5424730537281079</v>
       </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>从动盘总成</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>0.4681951031310141</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>托架</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>0.3616399507458767</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>内骨架</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0.2986419636108942</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>合成机油</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>0.2963955539311042</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2880,6 +7992,34 @@
       <c r="C163" t="n">
         <v>0.1382225884055672</v>
       </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>用车</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0.1326207335633625</v>
+      </c>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="n">
+        <v>0.1293339304938815</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>车展</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0.1275238315045717</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>拖车</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>0.1156358766076598</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -2895,6 +8035,34 @@
       <c r="C164" t="n">
         <v>0.4905836278071112</v>
       </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>新车</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>0.1454139982344944</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>用车</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>0.1395206915070576</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>0.13606288347976</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>车展</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>0.1341586091185865</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -2910,6 +8078,34 @@
       <c r="C165" t="n">
         <v>0.4277603246226157</v>
       </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>新车</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>0.1509552099454005</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>用车</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>0.144837330201263</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>0.1412477573743755</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>车展</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>0.1392709178714755</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -2925,6 +8121,38 @@
       <c r="C166" t="n">
         <v>0.368441505376269</v>
       </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>比亚迪</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>0.3231112131569109</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>车辆稳定性控制系统</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>0.2676821936876692</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>奥斯莫比</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0.2635873185949433</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>必比登</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>0.252147540648714</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -2940,6 +8168,38 @@
       <c r="C167" t="n">
         <v>0.5181762850284184</v>
       </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>轮间</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>0.5115018651348514</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>轮眉</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>0.4747134280029474</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>轮距</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0.460639781954952</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>汽车四轮定位</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>0.4503658592110282</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2955,6 +8215,38 @@
       <c r="C168" t="n">
         <v>0.3541755568809121</v>
       </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>轿车发动机</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>0.3166112229204085</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>发动机烧机油</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>0.309669987268537</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>从动轮</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0.2843397121588291</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>发动机转速</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>0.2604175630942732</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -2970,6 +8262,38 @@
       <c r="C169" t="n">
         <v>0.5797076430271132</v>
       </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>轮缸</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>0.4552699046599424</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>轮间</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>0.4494057564995572</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>轮眉</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0.4170834199713393</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>轮距</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>0.4047183085611611</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2985,6 +8309,38 @@
       <c r="C170" t="n">
         <v>0.8454482984504477</v>
       </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>车门饰板</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>0.4574217695562562</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>盖板</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>0.4504278010251626</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>中盖</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0.4311908548139998</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>饰框</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>0.4071663930196448</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3000,6 +8356,38 @@
       <c r="C171" t="n">
         <v>0.3649916941164098</v>
       </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>全承载车身</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>0.3439078320837655</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>短圆柱滚子轴承</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>0.3341421397584827</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>非承载式车身</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0.2877557687771323</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>前半轴</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>0.2496278828169151</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3015,6 +8403,38 @@
       <c r="C172" t="n">
         <v>0.6471243996734337</v>
       </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>车门玻璃</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>0.6186613988780647</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>车门饰板</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>0.5990082635454216</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>右后车门</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0.5914468087056101</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>门泵</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>0.5809704166249887</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3030,6 +8450,38 @@
       <c r="C173" t="n">
         <v>1</v>
       </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>前门玻璃</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>0.8467733828975983</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>电动玻璃</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>0.6057525853903889</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>汽车挡风玻璃</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0.5805150861235184</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>挡风玻璃</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>0.5638488469261691</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3045,6 +8497,38 @@
       <c r="C174" t="n">
         <v>0.9999999999999999</v>
       </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>车门框</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>0.3144432332663383</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>车门玻璃</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>0.3006128198202146</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>车门饰板</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0.291063194708048</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>右后车门</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>0.2873890196819979</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3060,6 +8544,38 @@
       <c r="C175" t="n">
         <v>0.603204371576222</v>
       </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>车门把手</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>0.5755944139623921</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>手拉葫芦</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0.4605282415417792</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>二手车</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0.4224844359968756</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>车门框</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>0.3874182081850062</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3075,6 +8591,38 @@
       <c r="C176" t="n">
         <v>1</v>
       </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>饰盖</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>0.4554239935498398</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>饰框</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>0.4190195392825491</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>车门框</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0.3876328629462569</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>装饰灯</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>0.3868792589092877</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3090,6 +8638,38 @@
       <c r="C177" t="n">
         <v>0.4681324726148731</v>
       </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>从动盘总成</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>0.4040335824768002</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>锁芯</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>0.3916199780677207</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>电源锁</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0.3506784098928053</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>车内中控锁</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>0.350233011721764</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3105,6 +8685,38 @@
       <c r="C178" t="n">
         <v>0.3009031037002434</v>
       </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>车门玻璃</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>0.2876682368272418</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>车门饰板</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>0.2785298247661025</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>右后车门</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0.2750138620996713</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>门泵</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>0.2701424974992476</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3120,6 +8732,38 @@
       <c r="C179" t="n">
         <v>0.3587446948146539</v>
       </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>新大地</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>0.3206933070825219</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>车内中控锁</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>0.2943451077409338</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>车内后视镜</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0.2871676340573017</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>内骨架</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>0.2667765308528662</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3135,6 +8779,38 @@
       <c r="C180" t="n">
         <v>1</v>
       </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>内后视镜</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>0.9758958582030631</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>广角后视镜</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>0.6114029109532328</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>防眩目后视镜</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0.5507372873747125</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>圆镜</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>0.3446704742109551</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3150,6 +8826,38 @@
       <c r="C181" t="n">
         <v>0.8939209930408073</v>
       </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>水温传感器</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>0.6693096247175931</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>转速传感器</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>0.52606203443793</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>曲轴位置传感器</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0.4003349083723579</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>年度车</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>0.3353202097014396</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3165,6 +8873,38 @@
       <c r="C182" t="n">
         <v>0.679557914617603</v>
       </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>蓝牌车</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>0.6479878941620703</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>牌照板</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>0.5535942492070109</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>品牌二手车</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0.5461555343801027</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>牌照框</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>0.4986477657372235</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3180,6 +8920,38 @@
       <c r="C183" t="n">
         <v>0.5143275788177222</v>
       </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>蓝牌车</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>0.490433615058567</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>托架</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>0.4202522682048161</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>牌照板</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>0.4189912054843445</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>品牌二手车</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>0.413361168508626</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -3195,6 +8967,38 @@
       <c r="C184" t="n">
         <v>0.5315311424456179</v>
       </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>非承载式车身</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>0.4447446037988804</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>全铝车身框架结构</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>0.3675731285385319</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>新车</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0.1804018565143503</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>用车</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>0.1730905695162193</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -3210,6 +9014,38 @@
       <c r="C185" t="n">
         <v>0.3146638514473746</v>
       </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>金旅客车</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>0.3116741547158149</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>汽车挂件</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>0.3027004836472051</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>汽车零部件</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0.2735843830950694</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>全承载车身</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>0.2654583565419738</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3225,6 +9061,38 @@
       <c r="C186" t="n">
         <v>0.3655504509909163</v>
       </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>电焊条</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>0.341541914480446</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>都市彩虹</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0.3163047374817237</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>地板压条</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0.3112660629759834</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>全承载车身</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>0.2853886711599624</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3240,6 +9108,38 @@
       <c r="C187" t="n">
         <v>0.3309849475492287</v>
       </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>汽车零部件</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>0.2991482259887883</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>全承载车身</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>0.2902629000056468</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>汽车覆盖件</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0.2825931233066729</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>零部件</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>0.269257313182402</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -3255,6 +9155,38 @@
       <c r="C188" t="n">
         <v>0.4486635109382587</v>
       </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>汽车零部件</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>0.4055075445481363</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>全承载车身</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>0.3934631250633673</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>汽车覆盖件</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0.3830664318984544</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>零部件</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>0.3649892007860897</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -3270,6 +9202,38 @@
       <c r="C189" t="n">
         <v>0.4162672288304866</v>
       </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>驾校</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>0.357926444489517</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>工具与设备</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>0.3405428773310518</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>驾校一点通</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0.2378703861965582</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>全承载车身</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>0.2243797534474518</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -3285,6 +9249,38 @@
       <c r="C190" t="n">
         <v>0.4484383011497396</v>
       </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>玻璃清洗液</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>0.4454913511761233</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>泡沫清洗剂</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>0.3722071461832187</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>工具与设备</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0.3668616186963134</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>清障车</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>0.3030992694700266</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -3300,6 +9296,38 @@
       <c r="C191" t="n">
         <v>0.5095861097987763</v>
       </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>甩尾</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>0.4037446395233124</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>尾灯罩</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>0.3882347891997334</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>大尾翼</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0.379388929408385</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>全承载车身</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>0.3279771030053127</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -3315,6 +9343,38 @@
       <c r="C192" t="n">
         <v>0.4268673138745936</v>
       </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>工具与设备</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>0.3492146708590117</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>整车及零部件</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>0.2576967076187843</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>异形钢管</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0.2499225160246169</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>全承载车身</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>0.2300934976578741</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -3330,6 +9390,38 @@
       <c r="C193" t="n">
         <v>0.5064810655160216</v>
       </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>电子驻车制动系统</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>0.4986946717116478</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>防抱制动系统</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>0.4831278373950992</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>车辆稳定性控制系统</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0.4638292207166643</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>电子感应制动系统</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>0.4476379711743164</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -3345,6 +9437,38 @@
       <c r="C194" t="n">
         <v>0.5015655716502836</v>
       </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>汽车台</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>0.4286304924266482</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>车载电台</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>0.3406045486094048</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>仪表</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>0.2851735770857657</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>检查发动机</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>0.2790844425487216</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -3360,6 +9484,38 @@
       <c r="C195" t="n">
         <v>0.8671845554368587</v>
       </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>温度传感器</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>0.6376576743077517</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>水温传感器</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>0.6341107291984296</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>曲轴位置传感器</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0.530420138499926</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>半自动变速器</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>0.3133346379422374</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -3375,6 +9531,38 @@
       <c r="C196" t="n">
         <v>0.7812016291128467</v>
       </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>仪表</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>0.537103753815819</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>仪表灯</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>0.4692280879146826</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>电器仪表</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0.4294450464328436</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>仪表台</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>0.4241976507881328</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -3390,6 +9578,38 @@
       <c r="C197" t="n">
         <v>0.5874914476988874</v>
       </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>发动机下护板</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>0.4519381048044473</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>下护</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>0.4162196735266533</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>车体结构</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0.4000957278828837</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>车门饰板</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>0.2962247485694698</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -3405,6 +9625,38 @@
       <c r="C198" t="n">
         <v>0.5173113489035343</v>
       </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>车门饰板</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>0.4697570644883015</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>下护板</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>0.4158299269218949</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>桃木饰件</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0.3762921378927113</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>发动机下护板</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>0.3198844678167541</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -3420,6 +9672,38 @@
       <c r="C199" t="n">
         <v>0.4704767419253734</v>
       </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>发动机下护板</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>0.3619224891411589</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>下护</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>0.3333183430891896</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>车体结构</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0.3204059144178013</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>车门饰板</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>0.2372236313064732</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -3435,6 +9719,38 @@
       <c r="C200" t="n">
         <v>0.8395649107092363</v>
       </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>水温传感器</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>0.6286113422634505</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>转速传感器</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>0.4940741166263651</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>曲轴位置传感器</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0.3759919995369051</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>年度车</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>0.3149306080835491</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -3450,6 +9766,38 @@
       <c r="C201" t="n">
         <v>0.7843896694926262</v>
       </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>大型车展</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>0.6647598774358336</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>部分车型</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>0.6552987050844788</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>紧凑车型</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0.5588929597987388</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>小型乘用车</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>0.5402819989007303</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -3465,6 +9813,38 @@
       <c r="C202" t="n">
         <v>0.47332546722554</v>
       </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>叉车用</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>0.309847659334045</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>汽车用柴油</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>0.2866350670388793</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>农用汽车</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0.2806540098777059</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>汽车信用卡</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>0.2503568973736283</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -3480,6 +9860,38 @@
       <c r="C203" t="n">
         <v>0.3558822731329898</v>
       </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>中国汽车工程学会</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>0.3140960156238651</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>北京国际汽车展览会</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>0.2892703806667601</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>国际窗膜协会</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0.2727895730411206</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>新车</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>0.1109478649701633</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -3495,6 +9907,34 @@
       <c r="C204" t="n">
         <v>0.08415073474362206</v>
       </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>用车</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>0.08074029216447227</v>
+      </c>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="n">
+        <v>0.07873926688745414</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>车展</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0.07763726784615292</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>拖车</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>0.07039981012875796</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -3510,6 +9950,38 @@
       <c r="C205" t="n">
         <v>1</v>
       </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>车载电台</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>0.3369238948046097</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>车载电脑</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>0.3276839753052072</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>车载电话</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0.3212513471266211</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>分动箱</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>0.2941205821463538</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -3525,6 +9997,38 @@
       <c r="C206" t="n">
         <v>0.9999999999999999</v>
       </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>车载电台</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>0.5473836110678181</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>车载电脑</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>0.5323719702208783</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>汽车电子电器</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0.3779053723154627</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>电子电控</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>0.3389006599171877</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -3540,6 +10044,38 @@
       <c r="C207" t="n">
         <v>0.9999999999999996</v>
       </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>气囊电脑</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>0.5687455651104127</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>车载电台</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>0.5583442351166977</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>车载电话</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0.5323719702208783</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>汽车电子电器</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>0.3854724215077495</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -3555,6 +10091,38 @@
       <c r="C208" t="n">
         <v>0.5801528968960961</v>
       </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>车载电脑</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>0.5642425796187365</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>车载电话</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>0.5531661676158821</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>车内后视镜</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0.4012138325741695</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>汽车电子电器</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>0.4005287919996757</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -3570,6 +10138,38 @@
       <c r="C209" t="n">
         <v>1</v>
       </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>车载电台</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>0.2880404914356014</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>车载电脑</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>0.2801411675987547</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>车载电话</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0.2746418325549848</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>车载冰箱</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>0.2673421839713091</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -3584,6 +10184,38 @@
       </c>
       <c r="C210" t="n">
         <v>0.298585184091822</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>车载电脑</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>0.2903966788914928</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>车载电话</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>0.2846960221600632</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>车载冰箱</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0.2771291453459758</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>安全带提醒装置</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>0.2601736539264016</v>
       </c>
     </row>
   </sheetData>
